--- a/GGJ2018/data/Level_Design.xlsx
+++ b/GGJ2018/data/Level_Design.xlsx
@@ -29,7 +29,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -50,7 +50,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,10 +189,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -160,7 +204,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +493,7 @@
   <dimension ref="A1:AV116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM21" sqref="AM21"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -453,68 +502,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="6"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="8"/>
     </row>
     <row r="2" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -531,13 +580,13 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
@@ -550,12 +599,13 @@
       <c r="AS2" s="2"/>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
-      <c r="AV2" s="8"/>
+      <c r="AV2" s="10"/>
     </row>
     <row r="3" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="15"/>
+      <c r="G3" s="19"/>
+      <c r="L3" s="15"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -572,8 +622,8 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
-      <c r="AC3" s="12"/>
-      <c r="AI3" s="12"/>
+      <c r="AC3" s="15"/>
+      <c r="AI3" s="15"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
@@ -586,12 +636,14 @@
       <c r="AS3" s="2"/>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
-      <c r="AV3" s="8"/>
+      <c r="AV3" s="10"/>
     </row>
     <row r="4" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="4"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="15"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -608,8 +660,8 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
-      <c r="AC4" s="12"/>
-      <c r="AI4" s="12"/>
+      <c r="AC4" s="15"/>
+      <c r="AI4" s="15"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
@@ -622,12 +674,12 @@
       <c r="AS4" s="2"/>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2"/>
-      <c r="AV4" s="8"/>
+      <c r="AV4" s="10"/>
     </row>
     <row r="5" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="15"/>
+      <c r="L5" s="15"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -644,8 +696,8 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
-      <c r="AC5" s="12"/>
-      <c r="AI5" s="12"/>
+      <c r="AC5" s="15"/>
+      <c r="AI5" s="15"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
@@ -658,18 +710,18 @@
       <c r="AS5" s="2"/>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2"/>
-      <c r="AV5" s="8"/>
+      <c r="AV5" s="10"/>
     </row>
     <row r="6" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -680,8 +732,8 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
-      <c r="AC6" s="12"/>
-      <c r="AI6" s="12"/>
+      <c r="AC6" s="15"/>
+      <c r="AI6" s="15"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
@@ -694,21 +746,22 @@
       <c r="AS6" s="2"/>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2"/>
-      <c r="AV6" s="8"/>
+      <c r="AV6" s="10"/>
     </row>
     <row r="7" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="R7" s="12"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="O7" s="16"/>
+      <c r="R7" s="15"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -719,8 +772,8 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
-      <c r="AC7" s="12"/>
-      <c r="AI7" s="12"/>
+      <c r="AC7" s="15"/>
+      <c r="AI7" s="15"/>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
@@ -733,21 +786,21 @@
       <c r="AS7" s="2"/>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2"/>
-      <c r="AV7" s="8"/>
+      <c r="AV7" s="10"/>
     </row>
     <row r="8" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="H8" s="15"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="12"/>
-      <c r="R8" s="12"/>
+      <c r="L8" s="15"/>
+      <c r="R8" s="15"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -758,12 +811,12 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
@@ -776,21 +829,21 @@
       <c r="AS8" s="2"/>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2"/>
-      <c r="AV8" s="8"/>
+      <c r="AV8" s="10"/>
     </row>
     <row r="9" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="H9" s="15"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="12"/>
-      <c r="R9" s="12"/>
+      <c r="L9" s="15"/>
+      <c r="R9" s="15"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -803,8 +856,8 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="12"/>
-      <c r="AG9" s="12"/>
+      <c r="AE9" s="15"/>
+      <c r="AG9" s="15"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
@@ -819,21 +872,21 @@
       <c r="AS9" s="2"/>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
-      <c r="AV9" s="8"/>
+      <c r="AV9" s="10"/>
     </row>
     <row r="10" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="H10" s="15"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="12"/>
-      <c r="R10" s="12"/>
+      <c r="L10" s="15"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -846,8 +899,9 @@
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="12"/>
-      <c r="AG10" s="12"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="15"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
@@ -862,25 +916,25 @@
       <c r="AS10" s="2"/>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
-      <c r="AV10" s="8"/>
+      <c r="AV10" s="10"/>
     </row>
     <row r="11" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="H11" s="15"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -893,8 +947,8 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="12"/>
-      <c r="AG11" s="12"/>
+      <c r="AE11" s="15"/>
+      <c r="AG11" s="15"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
@@ -909,28 +963,28 @@
       <c r="AS11" s="2"/>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
-      <c r="AV11" s="8"/>
+      <c r="AV11" s="10"/>
     </row>
     <row r="12" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
+      <c r="H12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -940,8 +994,8 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="12"/>
-      <c r="AG12" s="12"/>
+      <c r="AE12" s="15"/>
+      <c r="AG12" s="15"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
@@ -956,30 +1010,31 @@
       <c r="AS12" s="2"/>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
-      <c r="AV12" s="8"/>
+      <c r="AV12" s="10"/>
     </row>
     <row r="13" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
+      <c r="H13" s="15"/>
+      <c r="R13" s="14"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
@@ -993,30 +1048,30 @@
       <c r="AS13" s="2"/>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2"/>
-      <c r="AV13" s="8"/>
+      <c r="AV13" s="10"/>
     </row>
     <row r="14" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="AH14" s="12"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="AH14" s="15"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
@@ -1030,10 +1085,10 @@
       <c r="AS14" s="2"/>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2"/>
-      <c r="AV14" s="8"/>
+      <c r="AV14" s="10"/>
     </row>
     <row r="15" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1051,9 +1106,15 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="AH15" s="12"/>
+      <c r="S15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AH15" s="15"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
@@ -1067,10 +1128,10 @@
       <c r="AS15" s="2"/>
       <c r="AT15" s="2"/>
       <c r="AU15" s="2"/>
-      <c r="AV15" s="8"/>
+      <c r="AV15" s="10"/>
     </row>
     <row r="16" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1088,9 +1149,13 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="AH16" s="12"/>
+      <c r="S16" s="15"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="15"/>
+      <c r="AA16" s="17"/>
+      <c r="AC16" s="19"/>
+      <c r="AF16" s="17"/>
+      <c r="AH16" s="15"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
@@ -1104,10 +1169,10 @@
       <c r="AS16" s="2"/>
       <c r="AT16" s="2"/>
       <c r="AU16" s="2"/>
-      <c r="AV16" s="8"/>
+      <c r="AV16" s="10"/>
     </row>
     <row r="17" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1125,10 +1190,12 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AH17" s="12"/>
+      <c r="S17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="AA17" s="17"/>
+      <c r="AC17" s="15"/>
+      <c r="AF17" s="17"/>
+      <c r="AH17" s="15"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
@@ -1142,10 +1209,10 @@
       <c r="AS17" s="2"/>
       <c r="AT17" s="2"/>
       <c r="AU17" s="2"/>
-      <c r="AV17" s="8"/>
+      <c r="AV17" s="10"/>
     </row>
     <row r="18" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1163,9 +1230,11 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AH18" s="12"/>
+      <c r="S18" s="15"/>
+      <c r="AA18" s="17"/>
+      <c r="AC18" s="15"/>
+      <c r="AF18" s="17"/>
+      <c r="AH18" s="15"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
@@ -1179,10 +1248,10 @@
       <c r="AS18" s="2"/>
       <c r="AT18" s="2"/>
       <c r="AU18" s="2"/>
-      <c r="AV18" s="8"/>
+      <c r="AV18" s="10"/>
     </row>
     <row r="19" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1200,9 +1269,11 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AH19" s="12"/>
+      <c r="S19" s="15"/>
+      <c r="AA19" s="17"/>
+      <c r="AC19" s="15"/>
+      <c r="AF19" s="17"/>
+      <c r="AH19" s="15"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
@@ -1216,10 +1287,10 @@
       <c r="AS19" s="2"/>
       <c r="AT19" s="2"/>
       <c r="AU19" s="2"/>
-      <c r="AV19" s="8"/>
+      <c r="AV19" s="10"/>
     </row>
     <row r="20" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1237,9 +1308,15 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AH20" s="12"/>
+      <c r="S20" s="15"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="19"/>
+      <c r="AF20" s="18"/>
+      <c r="AH20" s="15"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
@@ -1253,10 +1330,10 @@
       <c r="AS20" s="2"/>
       <c r="AT20" s="2"/>
       <c r="AU20" s="2"/>
-      <c r="AV20" s="8"/>
+      <c r="AV20" s="10"/>
     </row>
     <row r="21" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1274,9 +1351,9 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AH21" s="12"/>
+      <c r="S21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AH21" s="15"/>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
@@ -1290,10 +1367,10 @@
       <c r="AS21" s="2"/>
       <c r="AT21" s="2"/>
       <c r="AU21" s="2"/>
-      <c r="AV21" s="8"/>
+      <c r="AV21" s="10"/>
     </row>
     <row r="22" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1311,9 +1388,11 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AH22" s="12"/>
+      <c r="S22" s="15"/>
+      <c r="V22" s="19"/>
+      <c r="AC22" s="15"/>
+      <c r="AF22" s="16"/>
+      <c r="AH22" s="15"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
@@ -1327,10 +1406,10 @@
       <c r="AS22" s="2"/>
       <c r="AT22" s="2"/>
       <c r="AU22" s="2"/>
-      <c r="AV22" s="8"/>
+      <c r="AV22" s="10"/>
     </row>
     <row r="23" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1348,22 +1427,22 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="15"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
@@ -1377,10 +1456,10 @@
       <c r="AS23" s="2"/>
       <c r="AT23" s="2"/>
       <c r="AU23" s="2"/>
-      <c r="AV23" s="8"/>
+      <c r="AV23" s="10"/>
     </row>
     <row r="24" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1427,10 +1506,10 @@
       <c r="AS24" s="2"/>
       <c r="AT24" s="2"/>
       <c r="AU24" s="2"/>
-      <c r="AV24" s="8"/>
+      <c r="AV24" s="10"/>
     </row>
     <row r="25" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1477,10 +1556,10 @@
       <c r="AS25" s="2"/>
       <c r="AT25" s="2"/>
       <c r="AU25" s="2"/>
-      <c r="AV25" s="8"/>
+      <c r="AV25" s="10"/>
     </row>
     <row r="26" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1527,69 +1606,3738 @@
       <c r="AS26" s="2"/>
       <c r="AT26" s="2"/>
       <c r="AU26" s="2"/>
-      <c r="AV26" s="8"/>
+      <c r="AV26" s="10"/>
     </row>
     <row r="27" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="10"/>
-      <c r="AG27" s="10"/>
-      <c r="AH27" s="10"/>
-      <c r="AI27" s="10"/>
-      <c r="AJ27" s="10"/>
-      <c r="AK27" s="10"/>
-      <c r="AL27" s="10"/>
-      <c r="AM27" s="10"/>
-      <c r="AN27" s="10"/>
-      <c r="AO27" s="10"/>
-      <c r="AP27" s="10"/>
-      <c r="AQ27" s="10"/>
-      <c r="AR27" s="10"/>
-      <c r="AS27" s="10"/>
-      <c r="AT27" s="10"/>
-      <c r="AU27" s="10"/>
-      <c r="AV27" s="11"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="12"/>
+      <c r="AS27" s="12"/>
+      <c r="AT27" s="12"/>
+      <c r="AU27" s="12"/>
+      <c r="AV27" s="13"/>
+    </row>
+    <row r="29" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="7"/>
+      <c r="AP30" s="7"/>
+      <c r="AQ30" s="7"/>
+      <c r="AR30" s="7"/>
+      <c r="AS30" s="7"/>
+      <c r="AT30" s="7"/>
+      <c r="AU30" s="7"/>
+      <c r="AV30" s="8"/>
+    </row>
+    <row r="31" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="15"/>
+      <c r="AL31" s="15"/>
+      <c r="AM31" s="15"/>
+      <c r="AN31" s="15"/>
+      <c r="AO31" s="15"/>
+      <c r="AP31" s="2"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="10"/>
     </row>
     <row r="32" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
-    </row>
-    <row r="60" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="3"/>
-    </row>
-    <row r="88" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="3"/>
-    </row>
-    <row r="116" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C116" s="3"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="15"/>
+      <c r="K32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AO32" s="15"/>
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="2"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
+      <c r="AU32" s="2"/>
+      <c r="AV32" s="10"/>
+    </row>
+    <row r="33" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="17"/>
+      <c r="AL33" s="18"/>
+      <c r="AN33" s="16"/>
+      <c r="AO33" s="15"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="10"/>
+    </row>
+    <row r="34" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="15"/>
+      <c r="D34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="Z34" s="19"/>
+      <c r="AO34" s="15"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2"/>
+      <c r="AV34" s="10"/>
+    </row>
+    <row r="35" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="15"/>
+      <c r="D35" s="18"/>
+      <c r="H35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="R35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="15"/>
+      <c r="AH35" s="15"/>
+      <c r="AI35" s="15"/>
+      <c r="AJ35" s="15"/>
+      <c r="AK35" s="15"/>
+      <c r="AL35" s="15"/>
+      <c r="AM35" s="15"/>
+      <c r="AN35" s="15"/>
+      <c r="AO35" s="15"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="2"/>
+      <c r="AV35" s="10"/>
+    </row>
+    <row r="36" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="15"/>
+      <c r="R36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="AK36" s="19"/>
+      <c r="AO36" s="15"/>
+      <c r="AP36" s="2"/>
+      <c r="AQ36" s="2"/>
+      <c r="AR36" s="2"/>
+      <c r="AS36" s="2"/>
+      <c r="AT36" s="2"/>
+      <c r="AU36" s="2"/>
+      <c r="AV36" s="10"/>
+    </row>
+    <row r="37" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="15"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="17"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="17"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="17"/>
+      <c r="AJ37" s="17"/>
+      <c r="AK37" s="17"/>
+      <c r="AL37" s="18"/>
+      <c r="AO37" s="15"/>
+      <c r="AP37" s="2"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="2"/>
+      <c r="AU37" s="2"/>
+      <c r="AV37" s="10"/>
+    </row>
+    <row r="38" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="15"/>
+      <c r="P38" s="19"/>
+      <c r="AC38" s="19"/>
+      <c r="AO38" s="15"/>
+      <c r="AP38" s="2"/>
+      <c r="AQ38" s="2"/>
+      <c r="AR38" s="2"/>
+      <c r="AS38" s="2"/>
+      <c r="AT38" s="2"/>
+      <c r="AU38" s="2"/>
+      <c r="AV38" s="10"/>
+    </row>
+    <row r="39" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="15"/>
+      <c r="AH39" s="15"/>
+      <c r="AI39" s="15"/>
+      <c r="AJ39" s="14"/>
+      <c r="AK39" s="15"/>
+      <c r="AL39" s="15"/>
+      <c r="AM39" s="15"/>
+      <c r="AN39" s="15"/>
+      <c r="AO39" s="15"/>
+      <c r="AP39" s="2"/>
+      <c r="AQ39" s="2"/>
+      <c r="AR39" s="2"/>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="2"/>
+      <c r="AU39" s="2"/>
+      <c r="AV39" s="10"/>
+    </row>
+    <row r="40" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="15"/>
+      <c r="I40" s="19"/>
+      <c r="AG40" s="15"/>
+      <c r="AO40" s="15"/>
+      <c r="AP40" s="2"/>
+      <c r="AQ40" s="2"/>
+      <c r="AR40" s="2"/>
+      <c r="AS40" s="2"/>
+      <c r="AT40" s="2"/>
+      <c r="AU40" s="2"/>
+      <c r="AV40" s="10"/>
+    </row>
+    <row r="41" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="15"/>
+      <c r="D41" s="18"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="AE41" s="18"/>
+      <c r="AG41" s="15"/>
+      <c r="AO41" s="15"/>
+      <c r="AP41" s="2"/>
+      <c r="AQ41" s="2"/>
+      <c r="AR41" s="2"/>
+      <c r="AS41" s="2"/>
+      <c r="AT41" s="2"/>
+      <c r="AU41" s="2"/>
+      <c r="AV41" s="10"/>
+    </row>
+    <row r="42" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="15"/>
+      <c r="D42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="AE42" s="17"/>
+      <c r="AG42" s="15"/>
+      <c r="AO42" s="15"/>
+      <c r="AP42" s="2"/>
+      <c r="AQ42" s="2"/>
+      <c r="AR42" s="2"/>
+      <c r="AS42" s="2"/>
+      <c r="AT42" s="2"/>
+      <c r="AU42" s="2"/>
+      <c r="AV42" s="10"/>
+    </row>
+    <row r="43" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="3"/>
+      <c r="D43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="AE43" s="17"/>
+      <c r="AG43" s="15"/>
+      <c r="AO43" s="15"/>
+      <c r="AP43" s="2"/>
+      <c r="AQ43" s="2"/>
+      <c r="AR43" s="2"/>
+      <c r="AS43" s="2"/>
+      <c r="AT43" s="2"/>
+      <c r="AU43" s="2"/>
+      <c r="AV43" s="10"/>
+    </row>
+    <row r="44" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="15"/>
+      <c r="D44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="R44" s="19"/>
+      <c r="W44" s="17"/>
+      <c r="AE44" s="17"/>
+      <c r="AG44" s="15"/>
+      <c r="AO44" s="15"/>
+      <c r="AP44" s="2"/>
+      <c r="AQ44" s="2"/>
+      <c r="AR44" s="2"/>
+      <c r="AS44" s="2"/>
+      <c r="AT44" s="2"/>
+      <c r="AU44" s="2"/>
+      <c r="AV44" s="10"/>
+    </row>
+    <row r="45" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="15"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="17"/>
+      <c r="Z45" s="17"/>
+      <c r="AA45" s="17"/>
+      <c r="AB45" s="17"/>
+      <c r="AC45" s="17"/>
+      <c r="AD45" s="17"/>
+      <c r="AE45" s="17"/>
+      <c r="AO45" s="15"/>
+      <c r="AP45" s="2"/>
+      <c r="AQ45" s="2"/>
+      <c r="AR45" s="2"/>
+      <c r="AS45" s="2"/>
+      <c r="AT45" s="2"/>
+      <c r="AU45" s="2"/>
+      <c r="AV45" s="10"/>
+    </row>
+    <row r="46" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="15"/>
+      <c r="AI46" s="19"/>
+      <c r="AO46" s="15"/>
+      <c r="AP46" s="2"/>
+      <c r="AQ46" s="2"/>
+      <c r="AR46" s="2"/>
+      <c r="AS46" s="2"/>
+      <c r="AT46" s="2"/>
+      <c r="AU46" s="2"/>
+      <c r="AV46" s="10"/>
+    </row>
+    <row r="47" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="15"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="15"/>
+      <c r="AC47" s="15"/>
+      <c r="AD47" s="15"/>
+      <c r="AE47" s="15"/>
+      <c r="AF47" s="15"/>
+      <c r="AG47" s="15"/>
+      <c r="AH47" s="15"/>
+      <c r="AI47" s="15"/>
+      <c r="AJ47" s="15"/>
+      <c r="AK47" s="15"/>
+      <c r="AL47" s="15"/>
+      <c r="AM47" s="15"/>
+      <c r="AN47" s="15"/>
+      <c r="AO47" s="15"/>
+      <c r="AP47" s="2"/>
+      <c r="AQ47" s="2"/>
+      <c r="AR47" s="2"/>
+      <c r="AS47" s="2"/>
+      <c r="AT47" s="2"/>
+      <c r="AU47" s="2"/>
+      <c r="AV47" s="10"/>
+    </row>
+    <row r="48" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2"/>
+      <c r="AK48" s="2"/>
+      <c r="AL48" s="2"/>
+      <c r="AM48" s="2"/>
+      <c r="AN48" s="2"/>
+      <c r="AO48" s="2"/>
+      <c r="AP48" s="2"/>
+      <c r="AQ48" s="2"/>
+      <c r="AR48" s="2"/>
+      <c r="AS48" s="2"/>
+      <c r="AT48" s="2"/>
+      <c r="AU48" s="2"/>
+      <c r="AV48" s="10"/>
+    </row>
+    <row r="49" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2"/>
+      <c r="AK49" s="2"/>
+      <c r="AL49" s="2"/>
+      <c r="AM49" s="2"/>
+      <c r="AN49" s="2"/>
+      <c r="AO49" s="2"/>
+      <c r="AP49" s="2"/>
+      <c r="AQ49" s="2"/>
+      <c r="AR49" s="2"/>
+      <c r="AS49" s="2"/>
+      <c r="AT49" s="2"/>
+      <c r="AU49" s="2"/>
+      <c r="AV49" s="10"/>
+    </row>
+    <row r="50" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="2"/>
+      <c r="AH50" s="2"/>
+      <c r="AI50" s="2"/>
+      <c r="AJ50" s="2"/>
+      <c r="AK50" s="2"/>
+      <c r="AL50" s="2"/>
+      <c r="AM50" s="2"/>
+      <c r="AN50" s="2"/>
+      <c r="AO50" s="2"/>
+      <c r="AP50" s="2"/>
+      <c r="AQ50" s="2"/>
+      <c r="AR50" s="2"/>
+      <c r="AS50" s="2"/>
+      <c r="AT50" s="2"/>
+      <c r="AU50" s="2"/>
+      <c r="AV50" s="10"/>
+    </row>
+    <row r="51" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="2"/>
+      <c r="AK51" s="2"/>
+      <c r="AL51" s="2"/>
+      <c r="AM51" s="2"/>
+      <c r="AN51" s="2"/>
+      <c r="AO51" s="2"/>
+      <c r="AP51" s="2"/>
+      <c r="AQ51" s="2"/>
+      <c r="AR51" s="2"/>
+      <c r="AS51" s="2"/>
+      <c r="AT51" s="2"/>
+      <c r="AU51" s="2"/>
+      <c r="AV51" s="10"/>
+    </row>
+    <row r="52" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="2"/>
+      <c r="AJ52" s="2"/>
+      <c r="AK52" s="2"/>
+      <c r="AL52" s="2"/>
+      <c r="AM52" s="2"/>
+      <c r="AN52" s="2"/>
+      <c r="AO52" s="2"/>
+      <c r="AP52" s="2"/>
+      <c r="AQ52" s="2"/>
+      <c r="AR52" s="2"/>
+      <c r="AS52" s="2"/>
+      <c r="AT52" s="2"/>
+      <c r="AU52" s="2"/>
+      <c r="AV52" s="10"/>
+    </row>
+    <row r="53" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="2"/>
+      <c r="AK53" s="2"/>
+      <c r="AL53" s="2"/>
+      <c r="AM53" s="2"/>
+      <c r="AN53" s="2"/>
+      <c r="AO53" s="2"/>
+      <c r="AP53" s="2"/>
+      <c r="AQ53" s="2"/>
+      <c r="AR53" s="2"/>
+      <c r="AS53" s="2"/>
+      <c r="AT53" s="2"/>
+      <c r="AU53" s="2"/>
+      <c r="AV53" s="10"/>
+    </row>
+    <row r="54" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="2"/>
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="2"/>
+      <c r="AJ54" s="2"/>
+      <c r="AK54" s="2"/>
+      <c r="AL54" s="2"/>
+      <c r="AM54" s="2"/>
+      <c r="AN54" s="2"/>
+      <c r="AO54" s="2"/>
+      <c r="AP54" s="2"/>
+      <c r="AQ54" s="2"/>
+      <c r="AR54" s="2"/>
+      <c r="AS54" s="2"/>
+      <c r="AT54" s="2"/>
+      <c r="AU54" s="2"/>
+      <c r="AV54" s="10"/>
+    </row>
+    <row r="55" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="2"/>
+      <c r="AH55" s="2"/>
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="2"/>
+      <c r="AK55" s="2"/>
+      <c r="AL55" s="2"/>
+      <c r="AM55" s="2"/>
+      <c r="AN55" s="2"/>
+      <c r="AO55" s="2"/>
+      <c r="AP55" s="2"/>
+      <c r="AQ55" s="2"/>
+      <c r="AR55" s="2"/>
+      <c r="AS55" s="2"/>
+      <c r="AT55" s="2"/>
+      <c r="AU55" s="2"/>
+      <c r="AV55" s="10"/>
+    </row>
+    <row r="56" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="12"/>
+      <c r="AC56" s="12"/>
+      <c r="AD56" s="12"/>
+      <c r="AE56" s="12"/>
+      <c r="AF56" s="12"/>
+      <c r="AG56" s="12"/>
+      <c r="AH56" s="12"/>
+      <c r="AI56" s="12"/>
+      <c r="AJ56" s="12"/>
+      <c r="AK56" s="12"/>
+      <c r="AL56" s="12"/>
+      <c r="AM56" s="12"/>
+      <c r="AN56" s="12"/>
+      <c r="AO56" s="12"/>
+      <c r="AP56" s="12"/>
+      <c r="AQ56" s="12"/>
+      <c r="AR56" s="12"/>
+      <c r="AS56" s="12"/>
+      <c r="AT56" s="12"/>
+      <c r="AU56" s="12"/>
+      <c r="AV56" s="13"/>
+    </row>
+    <row r="58" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="7"/>
+      <c r="AF59" s="7"/>
+      <c r="AG59" s="7"/>
+      <c r="AH59" s="7"/>
+      <c r="AI59" s="7"/>
+      <c r="AJ59" s="7"/>
+      <c r="AK59" s="7"/>
+      <c r="AL59" s="7"/>
+      <c r="AM59" s="7"/>
+      <c r="AN59" s="7"/>
+      <c r="AO59" s="7"/>
+      <c r="AP59" s="7"/>
+      <c r="AQ59" s="7"/>
+      <c r="AR59" s="7"/>
+      <c r="AS59" s="7"/>
+      <c r="AT59" s="7"/>
+      <c r="AU59" s="7"/>
+      <c r="AV59" s="8"/>
+    </row>
+    <row r="60" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="2"/>
+      <c r="AG60" s="2"/>
+      <c r="AH60" s="2"/>
+      <c r="AI60" s="2"/>
+      <c r="AJ60" s="2"/>
+      <c r="AK60" s="2"/>
+      <c r="AL60" s="2"/>
+      <c r="AM60" s="2"/>
+      <c r="AN60" s="2"/>
+      <c r="AO60" s="2"/>
+      <c r="AP60" s="2"/>
+      <c r="AQ60" s="2"/>
+      <c r="AR60" s="2"/>
+      <c r="AS60" s="2"/>
+      <c r="AT60" s="2"/>
+      <c r="AU60" s="2"/>
+      <c r="AV60" s="10"/>
+    </row>
+    <row r="61" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="2"/>
+      <c r="AG61" s="2"/>
+      <c r="AH61" s="2"/>
+      <c r="AI61" s="2"/>
+      <c r="AJ61" s="2"/>
+      <c r="AK61" s="2"/>
+      <c r="AL61" s="2"/>
+      <c r="AM61" s="2"/>
+      <c r="AN61" s="2"/>
+      <c r="AO61" s="2"/>
+      <c r="AP61" s="2"/>
+      <c r="AQ61" s="2"/>
+      <c r="AR61" s="2"/>
+      <c r="AS61" s="2"/>
+      <c r="AT61" s="2"/>
+      <c r="AU61" s="2"/>
+      <c r="AV61" s="10"/>
+    </row>
+    <row r="62" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="2"/>
+      <c r="AE62" s="2"/>
+      <c r="AF62" s="2"/>
+      <c r="AG62" s="2"/>
+      <c r="AH62" s="2"/>
+      <c r="AI62" s="2"/>
+      <c r="AJ62" s="2"/>
+      <c r="AK62" s="2"/>
+      <c r="AL62" s="2"/>
+      <c r="AM62" s="2"/>
+      <c r="AN62" s="2"/>
+      <c r="AO62" s="2"/>
+      <c r="AP62" s="2"/>
+      <c r="AQ62" s="2"/>
+      <c r="AR62" s="2"/>
+      <c r="AS62" s="2"/>
+      <c r="AT62" s="2"/>
+      <c r="AU62" s="2"/>
+      <c r="AV62" s="10"/>
+    </row>
+    <row r="63" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2"/>
+      <c r="AE63" s="2"/>
+      <c r="AF63" s="2"/>
+      <c r="AG63" s="2"/>
+      <c r="AH63" s="2"/>
+      <c r="AI63" s="2"/>
+      <c r="AJ63" s="2"/>
+      <c r="AK63" s="2"/>
+      <c r="AL63" s="2"/>
+      <c r="AM63" s="2"/>
+      <c r="AN63" s="2"/>
+      <c r="AO63" s="2"/>
+      <c r="AP63" s="2"/>
+      <c r="AQ63" s="2"/>
+      <c r="AR63" s="2"/>
+      <c r="AS63" s="2"/>
+      <c r="AT63" s="2"/>
+      <c r="AU63" s="2"/>
+      <c r="AV63" s="10"/>
+    </row>
+    <row r="64" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
+      <c r="AB64" s="2"/>
+      <c r="AC64" s="2"/>
+      <c r="AD64" s="2"/>
+      <c r="AE64" s="2"/>
+      <c r="AF64" s="2"/>
+      <c r="AG64" s="2"/>
+      <c r="AH64" s="2"/>
+      <c r="AI64" s="2"/>
+      <c r="AJ64" s="2"/>
+      <c r="AK64" s="2"/>
+      <c r="AL64" s="2"/>
+      <c r="AM64" s="2"/>
+      <c r="AN64" s="2"/>
+      <c r="AO64" s="2"/>
+      <c r="AP64" s="2"/>
+      <c r="AQ64" s="2"/>
+      <c r="AR64" s="2"/>
+      <c r="AS64" s="2"/>
+      <c r="AT64" s="2"/>
+      <c r="AU64" s="2"/>
+      <c r="AV64" s="10"/>
+    </row>
+    <row r="65" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="2"/>
+      <c r="AC65" s="2"/>
+      <c r="AD65" s="2"/>
+      <c r="AE65" s="2"/>
+      <c r="AF65" s="2"/>
+      <c r="AG65" s="2"/>
+      <c r="AH65" s="2"/>
+      <c r="AI65" s="2"/>
+      <c r="AJ65" s="2"/>
+      <c r="AK65" s="2"/>
+      <c r="AL65" s="2"/>
+      <c r="AM65" s="2"/>
+      <c r="AN65" s="2"/>
+      <c r="AO65" s="2"/>
+      <c r="AP65" s="2"/>
+      <c r="AQ65" s="2"/>
+      <c r="AR65" s="2"/>
+      <c r="AS65" s="2"/>
+      <c r="AT65" s="2"/>
+      <c r="AU65" s="2"/>
+      <c r="AV65" s="10"/>
+    </row>
+    <row r="66" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
+      <c r="AB66" s="2"/>
+      <c r="AC66" s="2"/>
+      <c r="AD66" s="2"/>
+      <c r="AE66" s="2"/>
+      <c r="AF66" s="2"/>
+      <c r="AG66" s="2"/>
+      <c r="AH66" s="2"/>
+      <c r="AI66" s="2"/>
+      <c r="AJ66" s="2"/>
+      <c r="AK66" s="2"/>
+      <c r="AL66" s="2"/>
+      <c r="AM66" s="2"/>
+      <c r="AN66" s="2"/>
+      <c r="AO66" s="2"/>
+      <c r="AP66" s="2"/>
+      <c r="AQ66" s="2"/>
+      <c r="AR66" s="2"/>
+      <c r="AS66" s="2"/>
+      <c r="AT66" s="2"/>
+      <c r="AU66" s="2"/>
+      <c r="AV66" s="10"/>
+    </row>
+    <row r="67" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="2"/>
+      <c r="AD67" s="2"/>
+      <c r="AE67" s="2"/>
+      <c r="AF67" s="2"/>
+      <c r="AG67" s="2"/>
+      <c r="AH67" s="2"/>
+      <c r="AI67" s="2"/>
+      <c r="AJ67" s="2"/>
+      <c r="AK67" s="2"/>
+      <c r="AL67" s="2"/>
+      <c r="AM67" s="2"/>
+      <c r="AN67" s="2"/>
+      <c r="AO67" s="2"/>
+      <c r="AP67" s="2"/>
+      <c r="AQ67" s="2"/>
+      <c r="AR67" s="2"/>
+      <c r="AS67" s="2"/>
+      <c r="AT67" s="2"/>
+      <c r="AU67" s="2"/>
+      <c r="AV67" s="10"/>
+    </row>
+    <row r="68" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2"/>
+      <c r="AD68" s="2"/>
+      <c r="AE68" s="2"/>
+      <c r="AF68" s="2"/>
+      <c r="AG68" s="2"/>
+      <c r="AH68" s="2"/>
+      <c r="AI68" s="2"/>
+      <c r="AJ68" s="2"/>
+      <c r="AK68" s="2"/>
+      <c r="AL68" s="2"/>
+      <c r="AM68" s="2"/>
+      <c r="AN68" s="2"/>
+      <c r="AO68" s="2"/>
+      <c r="AP68" s="2"/>
+      <c r="AQ68" s="2"/>
+      <c r="AR68" s="2"/>
+      <c r="AS68" s="2"/>
+      <c r="AT68" s="2"/>
+      <c r="AU68" s="2"/>
+      <c r="AV68" s="10"/>
+    </row>
+    <row r="69" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="2"/>
+      <c r="AD69" s="2"/>
+      <c r="AE69" s="2"/>
+      <c r="AF69" s="2"/>
+      <c r="AG69" s="2"/>
+      <c r="AH69" s="2"/>
+      <c r="AI69" s="2"/>
+      <c r="AJ69" s="2"/>
+      <c r="AK69" s="2"/>
+      <c r="AL69" s="2"/>
+      <c r="AM69" s="2"/>
+      <c r="AN69" s="2"/>
+      <c r="AO69" s="2"/>
+      <c r="AP69" s="2"/>
+      <c r="AQ69" s="2"/>
+      <c r="AR69" s="2"/>
+      <c r="AS69" s="2"/>
+      <c r="AT69" s="2"/>
+      <c r="AU69" s="2"/>
+      <c r="AV69" s="10"/>
+    </row>
+    <row r="70" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="2"/>
+      <c r="AD70" s="2"/>
+      <c r="AE70" s="2"/>
+      <c r="AF70" s="2"/>
+      <c r="AG70" s="2"/>
+      <c r="AH70" s="2"/>
+      <c r="AI70" s="2"/>
+      <c r="AJ70" s="2"/>
+      <c r="AK70" s="2"/>
+      <c r="AL70" s="2"/>
+      <c r="AM70" s="2"/>
+      <c r="AN70" s="2"/>
+      <c r="AO70" s="2"/>
+      <c r="AP70" s="2"/>
+      <c r="AQ70" s="2"/>
+      <c r="AR70" s="2"/>
+      <c r="AS70" s="2"/>
+      <c r="AT70" s="2"/>
+      <c r="AU70" s="2"/>
+      <c r="AV70" s="10"/>
+    </row>
+    <row r="71" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="2"/>
+      <c r="AC71" s="2"/>
+      <c r="AD71" s="2"/>
+      <c r="AE71" s="2"/>
+      <c r="AF71" s="2"/>
+      <c r="AG71" s="2"/>
+      <c r="AH71" s="2"/>
+      <c r="AI71" s="2"/>
+      <c r="AJ71" s="2"/>
+      <c r="AK71" s="2"/>
+      <c r="AL71" s="2"/>
+      <c r="AM71" s="2"/>
+      <c r="AN71" s="2"/>
+      <c r="AO71" s="2"/>
+      <c r="AP71" s="2"/>
+      <c r="AQ71" s="2"/>
+      <c r="AR71" s="2"/>
+      <c r="AS71" s="2"/>
+      <c r="AT71" s="2"/>
+      <c r="AU71" s="2"/>
+      <c r="AV71" s="10"/>
+    </row>
+    <row r="72" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
+      <c r="AB72" s="2"/>
+      <c r="AC72" s="2"/>
+      <c r="AD72" s="2"/>
+      <c r="AE72" s="2"/>
+      <c r="AF72" s="2"/>
+      <c r="AG72" s="2"/>
+      <c r="AH72" s="2"/>
+      <c r="AI72" s="2"/>
+      <c r="AJ72" s="2"/>
+      <c r="AK72" s="2"/>
+      <c r="AL72" s="2"/>
+      <c r="AM72" s="2"/>
+      <c r="AN72" s="2"/>
+      <c r="AO72" s="2"/>
+      <c r="AP72" s="2"/>
+      <c r="AQ72" s="2"/>
+      <c r="AR72" s="2"/>
+      <c r="AS72" s="2"/>
+      <c r="AT72" s="2"/>
+      <c r="AU72" s="2"/>
+      <c r="AV72" s="10"/>
+    </row>
+    <row r="73" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2"/>
+      <c r="AA73" s="2"/>
+      <c r="AB73" s="2"/>
+      <c r="AC73" s="2"/>
+      <c r="AD73" s="2"/>
+      <c r="AE73" s="2"/>
+      <c r="AF73" s="2"/>
+      <c r="AG73" s="2"/>
+      <c r="AH73" s="2"/>
+      <c r="AI73" s="2"/>
+      <c r="AJ73" s="2"/>
+      <c r="AK73" s="2"/>
+      <c r="AL73" s="2"/>
+      <c r="AM73" s="2"/>
+      <c r="AN73" s="2"/>
+      <c r="AO73" s="2"/>
+      <c r="AP73" s="2"/>
+      <c r="AQ73" s="2"/>
+      <c r="AR73" s="2"/>
+      <c r="AS73" s="2"/>
+      <c r="AT73" s="2"/>
+      <c r="AU73" s="2"/>
+      <c r="AV73" s="10"/>
+    </row>
+    <row r="74" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2"/>
+      <c r="AA74" s="2"/>
+      <c r="AB74" s="2"/>
+      <c r="AC74" s="2"/>
+      <c r="AD74" s="2"/>
+      <c r="AE74" s="2"/>
+      <c r="AF74" s="2"/>
+      <c r="AG74" s="2"/>
+      <c r="AH74" s="2"/>
+      <c r="AI74" s="2"/>
+      <c r="AJ74" s="2"/>
+      <c r="AK74" s="2"/>
+      <c r="AL74" s="2"/>
+      <c r="AM74" s="2"/>
+      <c r="AN74" s="2"/>
+      <c r="AO74" s="2"/>
+      <c r="AP74" s="2"/>
+      <c r="AQ74" s="2"/>
+      <c r="AR74" s="2"/>
+      <c r="AS74" s="2"/>
+      <c r="AT74" s="2"/>
+      <c r="AU74" s="2"/>
+      <c r="AV74" s="10"/>
+    </row>
+    <row r="75" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
+      <c r="AD75" s="2"/>
+      <c r="AE75" s="2"/>
+      <c r="AF75" s="2"/>
+      <c r="AG75" s="2"/>
+      <c r="AH75" s="2"/>
+      <c r="AI75" s="2"/>
+      <c r="AJ75" s="2"/>
+      <c r="AK75" s="2"/>
+      <c r="AL75" s="2"/>
+      <c r="AM75" s="2"/>
+      <c r="AN75" s="2"/>
+      <c r="AO75" s="2"/>
+      <c r="AP75" s="2"/>
+      <c r="AQ75" s="2"/>
+      <c r="AR75" s="2"/>
+      <c r="AS75" s="2"/>
+      <c r="AT75" s="2"/>
+      <c r="AU75" s="2"/>
+      <c r="AV75" s="10"/>
+    </row>
+    <row r="76" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="2"/>
+      <c r="AC76" s="2"/>
+      <c r="AD76" s="2"/>
+      <c r="AE76" s="2"/>
+      <c r="AF76" s="2"/>
+      <c r="AG76" s="2"/>
+      <c r="AH76" s="2"/>
+      <c r="AI76" s="2"/>
+      <c r="AJ76" s="2"/>
+      <c r="AK76" s="2"/>
+      <c r="AL76" s="2"/>
+      <c r="AM76" s="2"/>
+      <c r="AN76" s="2"/>
+      <c r="AO76" s="2"/>
+      <c r="AP76" s="2"/>
+      <c r="AQ76" s="2"/>
+      <c r="AR76" s="2"/>
+      <c r="AS76" s="2"/>
+      <c r="AT76" s="2"/>
+      <c r="AU76" s="2"/>
+      <c r="AV76" s="10"/>
+    </row>
+    <row r="77" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2"/>
+      <c r="AA77" s="2"/>
+      <c r="AB77" s="2"/>
+      <c r="AC77" s="2"/>
+      <c r="AD77" s="2"/>
+      <c r="AE77" s="2"/>
+      <c r="AF77" s="2"/>
+      <c r="AG77" s="2"/>
+      <c r="AH77" s="2"/>
+      <c r="AI77" s="2"/>
+      <c r="AJ77" s="2"/>
+      <c r="AK77" s="2"/>
+      <c r="AL77" s="2"/>
+      <c r="AM77" s="2"/>
+      <c r="AN77" s="2"/>
+      <c r="AO77" s="2"/>
+      <c r="AP77" s="2"/>
+      <c r="AQ77" s="2"/>
+      <c r="AR77" s="2"/>
+      <c r="AS77" s="2"/>
+      <c r="AT77" s="2"/>
+      <c r="AU77" s="2"/>
+      <c r="AV77" s="10"/>
+    </row>
+    <row r="78" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
+      <c r="AD78" s="2"/>
+      <c r="AE78" s="2"/>
+      <c r="AF78" s="2"/>
+      <c r="AG78" s="2"/>
+      <c r="AH78" s="2"/>
+      <c r="AI78" s="2"/>
+      <c r="AJ78" s="2"/>
+      <c r="AK78" s="2"/>
+      <c r="AL78" s="2"/>
+      <c r="AM78" s="2"/>
+      <c r="AN78" s="2"/>
+      <c r="AO78" s="2"/>
+      <c r="AP78" s="2"/>
+      <c r="AQ78" s="2"/>
+      <c r="AR78" s="2"/>
+      <c r="AS78" s="2"/>
+      <c r="AT78" s="2"/>
+      <c r="AU78" s="2"/>
+      <c r="AV78" s="10"/>
+    </row>
+    <row r="79" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="2"/>
+      <c r="AA79" s="2"/>
+      <c r="AB79" s="2"/>
+      <c r="AC79" s="2"/>
+      <c r="AD79" s="2"/>
+      <c r="AE79" s="2"/>
+      <c r="AF79" s="2"/>
+      <c r="AG79" s="2"/>
+      <c r="AH79" s="2"/>
+      <c r="AI79" s="2"/>
+      <c r="AJ79" s="2"/>
+      <c r="AK79" s="2"/>
+      <c r="AL79" s="2"/>
+      <c r="AM79" s="2"/>
+      <c r="AN79" s="2"/>
+      <c r="AO79" s="2"/>
+      <c r="AP79" s="2"/>
+      <c r="AQ79" s="2"/>
+      <c r="AR79" s="2"/>
+      <c r="AS79" s="2"/>
+      <c r="AT79" s="2"/>
+      <c r="AU79" s="2"/>
+      <c r="AV79" s="10"/>
+    </row>
+    <row r="80" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2"/>
+      <c r="AA80" s="2"/>
+      <c r="AB80" s="2"/>
+      <c r="AC80" s="2"/>
+      <c r="AD80" s="2"/>
+      <c r="AE80" s="2"/>
+      <c r="AF80" s="2"/>
+      <c r="AG80" s="2"/>
+      <c r="AH80" s="2"/>
+      <c r="AI80" s="2"/>
+      <c r="AJ80" s="2"/>
+      <c r="AK80" s="2"/>
+      <c r="AL80" s="2"/>
+      <c r="AM80" s="2"/>
+      <c r="AN80" s="2"/>
+      <c r="AO80" s="2"/>
+      <c r="AP80" s="2"/>
+      <c r="AQ80" s="2"/>
+      <c r="AR80" s="2"/>
+      <c r="AS80" s="2"/>
+      <c r="AT80" s="2"/>
+      <c r="AU80" s="2"/>
+      <c r="AV80" s="10"/>
+    </row>
+    <row r="81" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="2"/>
+      <c r="AA81" s="2"/>
+      <c r="AB81" s="2"/>
+      <c r="AC81" s="2"/>
+      <c r="AD81" s="2"/>
+      <c r="AE81" s="2"/>
+      <c r="AF81" s="2"/>
+      <c r="AG81" s="2"/>
+      <c r="AH81" s="2"/>
+      <c r="AI81" s="2"/>
+      <c r="AJ81" s="2"/>
+      <c r="AK81" s="2"/>
+      <c r="AL81" s="2"/>
+      <c r="AM81" s="2"/>
+      <c r="AN81" s="2"/>
+      <c r="AO81" s="2"/>
+      <c r="AP81" s="2"/>
+      <c r="AQ81" s="2"/>
+      <c r="AR81" s="2"/>
+      <c r="AS81" s="2"/>
+      <c r="AT81" s="2"/>
+      <c r="AU81" s="2"/>
+      <c r="AV81" s="10"/>
+    </row>
+    <row r="82" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2"/>
+      <c r="AA82" s="2"/>
+      <c r="AB82" s="2"/>
+      <c r="AC82" s="2"/>
+      <c r="AD82" s="2"/>
+      <c r="AE82" s="2"/>
+      <c r="AF82" s="2"/>
+      <c r="AG82" s="2"/>
+      <c r="AH82" s="2"/>
+      <c r="AI82" s="2"/>
+      <c r="AJ82" s="2"/>
+      <c r="AK82" s="2"/>
+      <c r="AL82" s="2"/>
+      <c r="AM82" s="2"/>
+      <c r="AN82" s="2"/>
+      <c r="AO82" s="2"/>
+      <c r="AP82" s="2"/>
+      <c r="AQ82" s="2"/>
+      <c r="AR82" s="2"/>
+      <c r="AS82" s="2"/>
+      <c r="AT82" s="2"/>
+      <c r="AU82" s="2"/>
+      <c r="AV82" s="10"/>
+    </row>
+    <row r="83" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="2"/>
+      <c r="AC83" s="2"/>
+      <c r="AD83" s="2"/>
+      <c r="AE83" s="2"/>
+      <c r="AF83" s="2"/>
+      <c r="AG83" s="2"/>
+      <c r="AH83" s="2"/>
+      <c r="AI83" s="2"/>
+      <c r="AJ83" s="2"/>
+      <c r="AK83" s="2"/>
+      <c r="AL83" s="2"/>
+      <c r="AM83" s="2"/>
+      <c r="AN83" s="2"/>
+      <c r="AO83" s="2"/>
+      <c r="AP83" s="2"/>
+      <c r="AQ83" s="2"/>
+      <c r="AR83" s="2"/>
+      <c r="AS83" s="2"/>
+      <c r="AT83" s="2"/>
+      <c r="AU83" s="2"/>
+      <c r="AV83" s="10"/>
+    </row>
+    <row r="84" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2"/>
+      <c r="AA84" s="2"/>
+      <c r="AB84" s="2"/>
+      <c r="AC84" s="2"/>
+      <c r="AD84" s="2"/>
+      <c r="AE84" s="2"/>
+      <c r="AF84" s="2"/>
+      <c r="AG84" s="2"/>
+      <c r="AH84" s="2"/>
+      <c r="AI84" s="2"/>
+      <c r="AJ84" s="2"/>
+      <c r="AK84" s="2"/>
+      <c r="AL84" s="2"/>
+      <c r="AM84" s="2"/>
+      <c r="AN84" s="2"/>
+      <c r="AO84" s="2"/>
+      <c r="AP84" s="2"/>
+      <c r="AQ84" s="2"/>
+      <c r="AR84" s="2"/>
+      <c r="AS84" s="2"/>
+      <c r="AT84" s="2"/>
+      <c r="AU84" s="2"/>
+      <c r="AV84" s="10"/>
+    </row>
+    <row r="85" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="11"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+      <c r="W85" s="12"/>
+      <c r="X85" s="12"/>
+      <c r="Y85" s="12"/>
+      <c r="Z85" s="12"/>
+      <c r="AA85" s="12"/>
+      <c r="AB85" s="12"/>
+      <c r="AC85" s="12"/>
+      <c r="AD85" s="12"/>
+      <c r="AE85" s="12"/>
+      <c r="AF85" s="12"/>
+      <c r="AG85" s="12"/>
+      <c r="AH85" s="12"/>
+      <c r="AI85" s="12"/>
+      <c r="AJ85" s="12"/>
+      <c r="AK85" s="12"/>
+      <c r="AL85" s="12"/>
+      <c r="AM85" s="12"/>
+      <c r="AN85" s="12"/>
+      <c r="AO85" s="12"/>
+      <c r="AP85" s="12"/>
+      <c r="AQ85" s="12"/>
+      <c r="AR85" s="12"/>
+      <c r="AS85" s="12"/>
+      <c r="AT85" s="12"/>
+      <c r="AU85" s="12"/>
+      <c r="AV85" s="13"/>
+    </row>
+    <row r="87" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
+      <c r="Y88" s="7"/>
+      <c r="Z88" s="7"/>
+      <c r="AA88" s="7"/>
+      <c r="AB88" s="7"/>
+      <c r="AC88" s="7"/>
+      <c r="AD88" s="7"/>
+      <c r="AE88" s="7"/>
+      <c r="AF88" s="7"/>
+      <c r="AG88" s="7"/>
+      <c r="AH88" s="7"/>
+      <c r="AI88" s="7"/>
+      <c r="AJ88" s="7"/>
+      <c r="AK88" s="7"/>
+      <c r="AL88" s="7"/>
+      <c r="AM88" s="7"/>
+      <c r="AN88" s="7"/>
+      <c r="AO88" s="7"/>
+      <c r="AP88" s="7"/>
+      <c r="AQ88" s="7"/>
+      <c r="AR88" s="7"/>
+      <c r="AS88" s="7"/>
+      <c r="AT88" s="7"/>
+      <c r="AU88" s="7"/>
+      <c r="AV88" s="8"/>
+    </row>
+    <row r="89" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="9"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2"/>
+      <c r="AA89" s="2"/>
+      <c r="AB89" s="2"/>
+      <c r="AC89" s="2"/>
+      <c r="AD89" s="2"/>
+      <c r="AE89" s="2"/>
+      <c r="AF89" s="2"/>
+      <c r="AG89" s="2"/>
+      <c r="AH89" s="2"/>
+      <c r="AI89" s="2"/>
+      <c r="AJ89" s="2"/>
+      <c r="AK89" s="2"/>
+      <c r="AL89" s="2"/>
+      <c r="AM89" s="2"/>
+      <c r="AN89" s="2"/>
+      <c r="AO89" s="2"/>
+      <c r="AP89" s="2"/>
+      <c r="AQ89" s="2"/>
+      <c r="AR89" s="2"/>
+      <c r="AS89" s="2"/>
+      <c r="AT89" s="2"/>
+      <c r="AU89" s="2"/>
+      <c r="AV89" s="10"/>
+    </row>
+    <row r="90" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="9"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
+      <c r="X90" s="2"/>
+      <c r="Y90" s="2"/>
+      <c r="Z90" s="2"/>
+      <c r="AA90" s="2"/>
+      <c r="AB90" s="2"/>
+      <c r="AC90" s="2"/>
+      <c r="AD90" s="2"/>
+      <c r="AE90" s="2"/>
+      <c r="AF90" s="2"/>
+      <c r="AG90" s="2"/>
+      <c r="AH90" s="2"/>
+      <c r="AI90" s="2"/>
+      <c r="AJ90" s="2"/>
+      <c r="AK90" s="2"/>
+      <c r="AL90" s="2"/>
+      <c r="AM90" s="2"/>
+      <c r="AN90" s="2"/>
+      <c r="AO90" s="2"/>
+      <c r="AP90" s="2"/>
+      <c r="AQ90" s="2"/>
+      <c r="AR90" s="2"/>
+      <c r="AS90" s="2"/>
+      <c r="AT90" s="2"/>
+      <c r="AU90" s="2"/>
+      <c r="AV90" s="10"/>
+    </row>
+    <row r="91" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="9"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="2"/>
+      <c r="X91" s="2"/>
+      <c r="Y91" s="2"/>
+      <c r="Z91" s="2"/>
+      <c r="AA91" s="2"/>
+      <c r="AB91" s="2"/>
+      <c r="AC91" s="2"/>
+      <c r="AD91" s="2"/>
+      <c r="AE91" s="2"/>
+      <c r="AF91" s="2"/>
+      <c r="AG91" s="2"/>
+      <c r="AH91" s="2"/>
+      <c r="AI91" s="2"/>
+      <c r="AJ91" s="2"/>
+      <c r="AK91" s="2"/>
+      <c r="AL91" s="2"/>
+      <c r="AM91" s="2"/>
+      <c r="AN91" s="2"/>
+      <c r="AO91" s="2"/>
+      <c r="AP91" s="2"/>
+      <c r="AQ91" s="2"/>
+      <c r="AR91" s="2"/>
+      <c r="AS91" s="2"/>
+      <c r="AT91" s="2"/>
+      <c r="AU91" s="2"/>
+      <c r="AV91" s="10"/>
+    </row>
+    <row r="92" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="9"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="2"/>
+      <c r="Z92" s="2"/>
+      <c r="AA92" s="2"/>
+      <c r="AB92" s="2"/>
+      <c r="AC92" s="2"/>
+      <c r="AD92" s="2"/>
+      <c r="AE92" s="2"/>
+      <c r="AF92" s="2"/>
+      <c r="AG92" s="2"/>
+      <c r="AH92" s="2"/>
+      <c r="AI92" s="2"/>
+      <c r="AJ92" s="2"/>
+      <c r="AK92" s="2"/>
+      <c r="AL92" s="2"/>
+      <c r="AM92" s="2"/>
+      <c r="AN92" s="2"/>
+      <c r="AO92" s="2"/>
+      <c r="AP92" s="2"/>
+      <c r="AQ92" s="2"/>
+      <c r="AR92" s="2"/>
+      <c r="AS92" s="2"/>
+      <c r="AT92" s="2"/>
+      <c r="AU92" s="2"/>
+      <c r="AV92" s="10"/>
+    </row>
+    <row r="93" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="9"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
+      <c r="Z93" s="2"/>
+      <c r="AA93" s="2"/>
+      <c r="AB93" s="2"/>
+      <c r="AC93" s="2"/>
+      <c r="AD93" s="2"/>
+      <c r="AE93" s="2"/>
+      <c r="AF93" s="2"/>
+      <c r="AG93" s="2"/>
+      <c r="AH93" s="2"/>
+      <c r="AI93" s="2"/>
+      <c r="AJ93" s="2"/>
+      <c r="AK93" s="2"/>
+      <c r="AL93" s="2"/>
+      <c r="AM93" s="2"/>
+      <c r="AN93" s="2"/>
+      <c r="AO93" s="2"/>
+      <c r="AP93" s="2"/>
+      <c r="AQ93" s="2"/>
+      <c r="AR93" s="2"/>
+      <c r="AS93" s="2"/>
+      <c r="AT93" s="2"/>
+      <c r="AU93" s="2"/>
+      <c r="AV93" s="10"/>
+    </row>
+    <row r="94" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="2"/>
+      <c r="X94" s="2"/>
+      <c r="Y94" s="2"/>
+      <c r="Z94" s="2"/>
+      <c r="AA94" s="2"/>
+      <c r="AB94" s="2"/>
+      <c r="AC94" s="2"/>
+      <c r="AD94" s="2"/>
+      <c r="AE94" s="2"/>
+      <c r="AF94" s="2"/>
+      <c r="AG94" s="2"/>
+      <c r="AH94" s="2"/>
+      <c r="AI94" s="2"/>
+      <c r="AJ94" s="2"/>
+      <c r="AK94" s="2"/>
+      <c r="AL94" s="2"/>
+      <c r="AM94" s="2"/>
+      <c r="AN94" s="2"/>
+      <c r="AO94" s="2"/>
+      <c r="AP94" s="2"/>
+      <c r="AQ94" s="2"/>
+      <c r="AR94" s="2"/>
+      <c r="AS94" s="2"/>
+      <c r="AT94" s="2"/>
+      <c r="AU94" s="2"/>
+      <c r="AV94" s="10"/>
+    </row>
+    <row r="95" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="2"/>
+      <c r="X95" s="2"/>
+      <c r="Y95" s="2"/>
+      <c r="Z95" s="2"/>
+      <c r="AA95" s="2"/>
+      <c r="AB95" s="2"/>
+      <c r="AC95" s="2"/>
+      <c r="AD95" s="2"/>
+      <c r="AE95" s="2"/>
+      <c r="AF95" s="2"/>
+      <c r="AG95" s="2"/>
+      <c r="AH95" s="2"/>
+      <c r="AI95" s="2"/>
+      <c r="AJ95" s="2"/>
+      <c r="AK95" s="2"/>
+      <c r="AL95" s="2"/>
+      <c r="AM95" s="2"/>
+      <c r="AN95" s="2"/>
+      <c r="AO95" s="2"/>
+      <c r="AP95" s="2"/>
+      <c r="AQ95" s="2"/>
+      <c r="AR95" s="2"/>
+      <c r="AS95" s="2"/>
+      <c r="AT95" s="2"/>
+      <c r="AU95" s="2"/>
+      <c r="AV95" s="10"/>
+    </row>
+    <row r="96" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="9"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
+      <c r="Z96" s="2"/>
+      <c r="AA96" s="2"/>
+      <c r="AB96" s="2"/>
+      <c r="AC96" s="2"/>
+      <c r="AD96" s="2"/>
+      <c r="AE96" s="2"/>
+      <c r="AF96" s="2"/>
+      <c r="AG96" s="2"/>
+      <c r="AH96" s="2"/>
+      <c r="AI96" s="2"/>
+      <c r="AJ96" s="2"/>
+      <c r="AK96" s="2"/>
+      <c r="AL96" s="2"/>
+      <c r="AM96" s="2"/>
+      <c r="AN96" s="2"/>
+      <c r="AO96" s="2"/>
+      <c r="AP96" s="2"/>
+      <c r="AQ96" s="2"/>
+      <c r="AR96" s="2"/>
+      <c r="AS96" s="2"/>
+      <c r="AT96" s="2"/>
+      <c r="AU96" s="2"/>
+      <c r="AV96" s="10"/>
+    </row>
+    <row r="97" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="9"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
+      <c r="AA97" s="2"/>
+      <c r="AB97" s="2"/>
+      <c r="AC97" s="2"/>
+      <c r="AD97" s="2"/>
+      <c r="AE97" s="2"/>
+      <c r="AF97" s="2"/>
+      <c r="AG97" s="2"/>
+      <c r="AH97" s="2"/>
+      <c r="AI97" s="2"/>
+      <c r="AJ97" s="2"/>
+      <c r="AK97" s="2"/>
+      <c r="AL97" s="2"/>
+      <c r="AM97" s="2"/>
+      <c r="AN97" s="2"/>
+      <c r="AO97" s="2"/>
+      <c r="AP97" s="2"/>
+      <c r="AQ97" s="2"/>
+      <c r="AR97" s="2"/>
+      <c r="AS97" s="2"/>
+      <c r="AT97" s="2"/>
+      <c r="AU97" s="2"/>
+      <c r="AV97" s="10"/>
+    </row>
+    <row r="98" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="9"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
+      <c r="X98" s="2"/>
+      <c r="Y98" s="2"/>
+      <c r="Z98" s="2"/>
+      <c r="AA98" s="2"/>
+      <c r="AB98" s="2"/>
+      <c r="AC98" s="2"/>
+      <c r="AD98" s="2"/>
+      <c r="AE98" s="2"/>
+      <c r="AF98" s="2"/>
+      <c r="AG98" s="2"/>
+      <c r="AH98" s="2"/>
+      <c r="AI98" s="2"/>
+      <c r="AJ98" s="2"/>
+      <c r="AK98" s="2"/>
+      <c r="AL98" s="2"/>
+      <c r="AM98" s="2"/>
+      <c r="AN98" s="2"/>
+      <c r="AO98" s="2"/>
+      <c r="AP98" s="2"/>
+      <c r="AQ98" s="2"/>
+      <c r="AR98" s="2"/>
+      <c r="AS98" s="2"/>
+      <c r="AT98" s="2"/>
+      <c r="AU98" s="2"/>
+      <c r="AV98" s="10"/>
+    </row>
+    <row r="99" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="9"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
+      <c r="X99" s="2"/>
+      <c r="Y99" s="2"/>
+      <c r="Z99" s="2"/>
+      <c r="AA99" s="2"/>
+      <c r="AB99" s="2"/>
+      <c r="AC99" s="2"/>
+      <c r="AD99" s="2"/>
+      <c r="AE99" s="2"/>
+      <c r="AF99" s="2"/>
+      <c r="AG99" s="2"/>
+      <c r="AH99" s="2"/>
+      <c r="AI99" s="2"/>
+      <c r="AJ99" s="2"/>
+      <c r="AK99" s="2"/>
+      <c r="AL99" s="2"/>
+      <c r="AM99" s="2"/>
+      <c r="AN99" s="2"/>
+      <c r="AO99" s="2"/>
+      <c r="AP99" s="2"/>
+      <c r="AQ99" s="2"/>
+      <c r="AR99" s="2"/>
+      <c r="AS99" s="2"/>
+      <c r="AT99" s="2"/>
+      <c r="AU99" s="2"/>
+      <c r="AV99" s="10"/>
+    </row>
+    <row r="100" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="9"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="2"/>
+      <c r="Y100" s="2"/>
+      <c r="Z100" s="2"/>
+      <c r="AA100" s="2"/>
+      <c r="AB100" s="2"/>
+      <c r="AC100" s="2"/>
+      <c r="AD100" s="2"/>
+      <c r="AE100" s="2"/>
+      <c r="AF100" s="2"/>
+      <c r="AG100" s="2"/>
+      <c r="AH100" s="2"/>
+      <c r="AI100" s="2"/>
+      <c r="AJ100" s="2"/>
+      <c r="AK100" s="2"/>
+      <c r="AL100" s="2"/>
+      <c r="AM100" s="2"/>
+      <c r="AN100" s="2"/>
+      <c r="AO100" s="2"/>
+      <c r="AP100" s="2"/>
+      <c r="AQ100" s="2"/>
+      <c r="AR100" s="2"/>
+      <c r="AS100" s="2"/>
+      <c r="AT100" s="2"/>
+      <c r="AU100" s="2"/>
+      <c r="AV100" s="10"/>
+    </row>
+    <row r="101" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="9"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="2"/>
+      <c r="W101" s="2"/>
+      <c r="X101" s="2"/>
+      <c r="Y101" s="2"/>
+      <c r="Z101" s="2"/>
+      <c r="AA101" s="2"/>
+      <c r="AB101" s="2"/>
+      <c r="AC101" s="2"/>
+      <c r="AD101" s="2"/>
+      <c r="AE101" s="2"/>
+      <c r="AF101" s="2"/>
+      <c r="AG101" s="2"/>
+      <c r="AH101" s="2"/>
+      <c r="AI101" s="2"/>
+      <c r="AJ101" s="2"/>
+      <c r="AK101" s="2"/>
+      <c r="AL101" s="2"/>
+      <c r="AM101" s="2"/>
+      <c r="AN101" s="2"/>
+      <c r="AO101" s="2"/>
+      <c r="AP101" s="2"/>
+      <c r="AQ101" s="2"/>
+      <c r="AR101" s="2"/>
+      <c r="AS101" s="2"/>
+      <c r="AT101" s="2"/>
+      <c r="AU101" s="2"/>
+      <c r="AV101" s="10"/>
+    </row>
+    <row r="102" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="9"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="2"/>
+      <c r="Y102" s="2"/>
+      <c r="Z102" s="2"/>
+      <c r="AA102" s="2"/>
+      <c r="AB102" s="2"/>
+      <c r="AC102" s="2"/>
+      <c r="AD102" s="2"/>
+      <c r="AE102" s="2"/>
+      <c r="AF102" s="2"/>
+      <c r="AG102" s="2"/>
+      <c r="AH102" s="2"/>
+      <c r="AI102" s="2"/>
+      <c r="AJ102" s="2"/>
+      <c r="AK102" s="2"/>
+      <c r="AL102" s="2"/>
+      <c r="AM102" s="2"/>
+      <c r="AN102" s="2"/>
+      <c r="AO102" s="2"/>
+      <c r="AP102" s="2"/>
+      <c r="AQ102" s="2"/>
+      <c r="AR102" s="2"/>
+      <c r="AS102" s="2"/>
+      <c r="AT102" s="2"/>
+      <c r="AU102" s="2"/>
+      <c r="AV102" s="10"/>
+    </row>
+    <row r="103" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="9"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="2"/>
+      <c r="X103" s="2"/>
+      <c r="Y103" s="2"/>
+      <c r="Z103" s="2"/>
+      <c r="AA103" s="2"/>
+      <c r="AB103" s="2"/>
+      <c r="AC103" s="2"/>
+      <c r="AD103" s="2"/>
+      <c r="AE103" s="2"/>
+      <c r="AF103" s="2"/>
+      <c r="AG103" s="2"/>
+      <c r="AH103" s="2"/>
+      <c r="AI103" s="2"/>
+      <c r="AJ103" s="2"/>
+      <c r="AK103" s="2"/>
+      <c r="AL103" s="2"/>
+      <c r="AM103" s="2"/>
+      <c r="AN103" s="2"/>
+      <c r="AO103" s="2"/>
+      <c r="AP103" s="2"/>
+      <c r="AQ103" s="2"/>
+      <c r="AR103" s="2"/>
+      <c r="AS103" s="2"/>
+      <c r="AT103" s="2"/>
+      <c r="AU103" s="2"/>
+      <c r="AV103" s="10"/>
+    </row>
+    <row r="104" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="9"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2"/>
+      <c r="V104" s="2"/>
+      <c r="W104" s="2"/>
+      <c r="X104" s="2"/>
+      <c r="Y104" s="2"/>
+      <c r="Z104" s="2"/>
+      <c r="AA104" s="2"/>
+      <c r="AB104" s="2"/>
+      <c r="AC104" s="2"/>
+      <c r="AD104" s="2"/>
+      <c r="AE104" s="2"/>
+      <c r="AF104" s="2"/>
+      <c r="AG104" s="2"/>
+      <c r="AH104" s="2"/>
+      <c r="AI104" s="2"/>
+      <c r="AJ104" s="2"/>
+      <c r="AK104" s="2"/>
+      <c r="AL104" s="2"/>
+      <c r="AM104" s="2"/>
+      <c r="AN104" s="2"/>
+      <c r="AO104" s="2"/>
+      <c r="AP104" s="2"/>
+      <c r="AQ104" s="2"/>
+      <c r="AR104" s="2"/>
+      <c r="AS104" s="2"/>
+      <c r="AT104" s="2"/>
+      <c r="AU104" s="2"/>
+      <c r="AV104" s="10"/>
+    </row>
+    <row r="105" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="9"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="2"/>
+      <c r="X105" s="2"/>
+      <c r="Y105" s="2"/>
+      <c r="Z105" s="2"/>
+      <c r="AA105" s="2"/>
+      <c r="AB105" s="2"/>
+      <c r="AC105" s="2"/>
+      <c r="AD105" s="2"/>
+      <c r="AE105" s="2"/>
+      <c r="AF105" s="2"/>
+      <c r="AG105" s="2"/>
+      <c r="AH105" s="2"/>
+      <c r="AI105" s="2"/>
+      <c r="AJ105" s="2"/>
+      <c r="AK105" s="2"/>
+      <c r="AL105" s="2"/>
+      <c r="AM105" s="2"/>
+      <c r="AN105" s="2"/>
+      <c r="AO105" s="2"/>
+      <c r="AP105" s="2"/>
+      <c r="AQ105" s="2"/>
+      <c r="AR105" s="2"/>
+      <c r="AS105" s="2"/>
+      <c r="AT105" s="2"/>
+      <c r="AU105" s="2"/>
+      <c r="AV105" s="10"/>
+    </row>
+    <row r="106" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="9"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="2"/>
+      <c r="Y106" s="2"/>
+      <c r="Z106" s="2"/>
+      <c r="AA106" s="2"/>
+      <c r="AB106" s="2"/>
+      <c r="AC106" s="2"/>
+      <c r="AD106" s="2"/>
+      <c r="AE106" s="2"/>
+      <c r="AF106" s="2"/>
+      <c r="AG106" s="2"/>
+      <c r="AH106" s="2"/>
+      <c r="AI106" s="2"/>
+      <c r="AJ106" s="2"/>
+      <c r="AK106" s="2"/>
+      <c r="AL106" s="2"/>
+      <c r="AM106" s="2"/>
+      <c r="AN106" s="2"/>
+      <c r="AO106" s="2"/>
+      <c r="AP106" s="2"/>
+      <c r="AQ106" s="2"/>
+      <c r="AR106" s="2"/>
+      <c r="AS106" s="2"/>
+      <c r="AT106" s="2"/>
+      <c r="AU106" s="2"/>
+      <c r="AV106" s="10"/>
+    </row>
+    <row r="107" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="9"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="2"/>
+      <c r="X107" s="2"/>
+      <c r="Y107" s="2"/>
+      <c r="Z107" s="2"/>
+      <c r="AA107" s="2"/>
+      <c r="AB107" s="2"/>
+      <c r="AC107" s="2"/>
+      <c r="AD107" s="2"/>
+      <c r="AE107" s="2"/>
+      <c r="AF107" s="2"/>
+      <c r="AG107" s="2"/>
+      <c r="AH107" s="2"/>
+      <c r="AI107" s="2"/>
+      <c r="AJ107" s="2"/>
+      <c r="AK107" s="2"/>
+      <c r="AL107" s="2"/>
+      <c r="AM107" s="2"/>
+      <c r="AN107" s="2"/>
+      <c r="AO107" s="2"/>
+      <c r="AP107" s="2"/>
+      <c r="AQ107" s="2"/>
+      <c r="AR107" s="2"/>
+      <c r="AS107" s="2"/>
+      <c r="AT107" s="2"/>
+      <c r="AU107" s="2"/>
+      <c r="AV107" s="10"/>
+    </row>
+    <row r="108" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="9"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="X108" s="2"/>
+      <c r="Y108" s="2"/>
+      <c r="Z108" s="2"/>
+      <c r="AA108" s="2"/>
+      <c r="AB108" s="2"/>
+      <c r="AC108" s="2"/>
+      <c r="AD108" s="2"/>
+      <c r="AE108" s="2"/>
+      <c r="AF108" s="2"/>
+      <c r="AG108" s="2"/>
+      <c r="AH108" s="2"/>
+      <c r="AI108" s="2"/>
+      <c r="AJ108" s="2"/>
+      <c r="AK108" s="2"/>
+      <c r="AL108" s="2"/>
+      <c r="AM108" s="2"/>
+      <c r="AN108" s="2"/>
+      <c r="AO108" s="2"/>
+      <c r="AP108" s="2"/>
+      <c r="AQ108" s="2"/>
+      <c r="AR108" s="2"/>
+      <c r="AS108" s="2"/>
+      <c r="AT108" s="2"/>
+      <c r="AU108" s="2"/>
+      <c r="AV108" s="10"/>
+    </row>
+    <row r="109" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="9"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="2"/>
+      <c r="X109" s="2"/>
+      <c r="Y109" s="2"/>
+      <c r="Z109" s="2"/>
+      <c r="AA109" s="2"/>
+      <c r="AB109" s="2"/>
+      <c r="AC109" s="2"/>
+      <c r="AD109" s="2"/>
+      <c r="AE109" s="2"/>
+      <c r="AF109" s="2"/>
+      <c r="AG109" s="2"/>
+      <c r="AH109" s="2"/>
+      <c r="AI109" s="2"/>
+      <c r="AJ109" s="2"/>
+      <c r="AK109" s="2"/>
+      <c r="AL109" s="2"/>
+      <c r="AM109" s="2"/>
+      <c r="AN109" s="2"/>
+      <c r="AO109" s="2"/>
+      <c r="AP109" s="2"/>
+      <c r="AQ109" s="2"/>
+      <c r="AR109" s="2"/>
+      <c r="AS109" s="2"/>
+      <c r="AT109" s="2"/>
+      <c r="AU109" s="2"/>
+      <c r="AV109" s="10"/>
+    </row>
+    <row r="110" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="9"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="2"/>
+      <c r="X110" s="2"/>
+      <c r="Y110" s="2"/>
+      <c r="Z110" s="2"/>
+      <c r="AA110" s="2"/>
+      <c r="AB110" s="2"/>
+      <c r="AC110" s="2"/>
+      <c r="AD110" s="2"/>
+      <c r="AE110" s="2"/>
+      <c r="AF110" s="2"/>
+      <c r="AG110" s="2"/>
+      <c r="AH110" s="2"/>
+      <c r="AI110" s="2"/>
+      <c r="AJ110" s="2"/>
+      <c r="AK110" s="2"/>
+      <c r="AL110" s="2"/>
+      <c r="AM110" s="2"/>
+      <c r="AN110" s="2"/>
+      <c r="AO110" s="2"/>
+      <c r="AP110" s="2"/>
+      <c r="AQ110" s="2"/>
+      <c r="AR110" s="2"/>
+      <c r="AS110" s="2"/>
+      <c r="AT110" s="2"/>
+      <c r="AU110" s="2"/>
+      <c r="AV110" s="10"/>
+    </row>
+    <row r="111" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="9"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
+      <c r="W111" s="2"/>
+      <c r="X111" s="2"/>
+      <c r="Y111" s="2"/>
+      <c r="Z111" s="2"/>
+      <c r="AA111" s="2"/>
+      <c r="AB111" s="2"/>
+      <c r="AC111" s="2"/>
+      <c r="AD111" s="2"/>
+      <c r="AE111" s="2"/>
+      <c r="AF111" s="2"/>
+      <c r="AG111" s="2"/>
+      <c r="AH111" s="2"/>
+      <c r="AI111" s="2"/>
+      <c r="AJ111" s="2"/>
+      <c r="AK111" s="2"/>
+      <c r="AL111" s="2"/>
+      <c r="AM111" s="2"/>
+      <c r="AN111" s="2"/>
+      <c r="AO111" s="2"/>
+      <c r="AP111" s="2"/>
+      <c r="AQ111" s="2"/>
+      <c r="AR111" s="2"/>
+      <c r="AS111" s="2"/>
+      <c r="AT111" s="2"/>
+      <c r="AU111" s="2"/>
+      <c r="AV111" s="10"/>
+    </row>
+    <row r="112" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="9"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="2"/>
+      <c r="W112" s="2"/>
+      <c r="X112" s="2"/>
+      <c r="Y112" s="2"/>
+      <c r="Z112" s="2"/>
+      <c r="AA112" s="2"/>
+      <c r="AB112" s="2"/>
+      <c r="AC112" s="2"/>
+      <c r="AD112" s="2"/>
+      <c r="AE112" s="2"/>
+      <c r="AF112" s="2"/>
+      <c r="AG112" s="2"/>
+      <c r="AH112" s="2"/>
+      <c r="AI112" s="2"/>
+      <c r="AJ112" s="2"/>
+      <c r="AK112" s="2"/>
+      <c r="AL112" s="2"/>
+      <c r="AM112" s="2"/>
+      <c r="AN112" s="2"/>
+      <c r="AO112" s="2"/>
+      <c r="AP112" s="2"/>
+      <c r="AQ112" s="2"/>
+      <c r="AR112" s="2"/>
+      <c r="AS112" s="2"/>
+      <c r="AT112" s="2"/>
+      <c r="AU112" s="2"/>
+      <c r="AV112" s="10"/>
+    </row>
+    <row r="113" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="9"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="2"/>
+      <c r="W113" s="2"/>
+      <c r="X113" s="2"/>
+      <c r="Y113" s="2"/>
+      <c r="Z113" s="2"/>
+      <c r="AA113" s="2"/>
+      <c r="AB113" s="2"/>
+      <c r="AC113" s="2"/>
+      <c r="AD113" s="2"/>
+      <c r="AE113" s="2"/>
+      <c r="AF113" s="2"/>
+      <c r="AG113" s="2"/>
+      <c r="AH113" s="2"/>
+      <c r="AI113" s="2"/>
+      <c r="AJ113" s="2"/>
+      <c r="AK113" s="2"/>
+      <c r="AL113" s="2"/>
+      <c r="AM113" s="2"/>
+      <c r="AN113" s="2"/>
+      <c r="AO113" s="2"/>
+      <c r="AP113" s="2"/>
+      <c r="AQ113" s="2"/>
+      <c r="AR113" s="2"/>
+      <c r="AS113" s="2"/>
+      <c r="AT113" s="2"/>
+      <c r="AU113" s="2"/>
+      <c r="AV113" s="10"/>
+    </row>
+    <row r="114" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="11"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="12"/>
+      <c r="S114" s="12"/>
+      <c r="T114" s="12"/>
+      <c r="U114" s="12"/>
+      <c r="V114" s="12"/>
+      <c r="W114" s="12"/>
+      <c r="X114" s="12"/>
+      <c r="Y114" s="12"/>
+      <c r="Z114" s="12"/>
+      <c r="AA114" s="12"/>
+      <c r="AB114" s="12"/>
+      <c r="AC114" s="12"/>
+      <c r="AD114" s="12"/>
+      <c r="AE114" s="12"/>
+      <c r="AF114" s="12"/>
+      <c r="AG114" s="12"/>
+      <c r="AH114" s="12"/>
+      <c r="AI114" s="12"/>
+      <c r="AJ114" s="12"/>
+      <c r="AK114" s="12"/>
+      <c r="AL114" s="12"/>
+      <c r="AM114" s="12"/>
+      <c r="AN114" s="12"/>
+      <c r="AO114" s="12"/>
+      <c r="AP114" s="12"/>
+      <c r="AQ114" s="12"/>
+      <c r="AR114" s="12"/>
+      <c r="AS114" s="12"/>
+      <c r="AT114" s="12"/>
+      <c r="AU114" s="12"/>
+      <c r="AV114" s="13"/>
+    </row>
+    <row r="116" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C116" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GGJ2018/data/Level_Design.xlsx
+++ b/GGJ2018/data/Level_Design.xlsx
@@ -29,7 +29,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,6 +93,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -210,6 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1658,113 +1665,99 @@
       <c r="AU27" s="12"/>
       <c r="AV27" s="13"/>
     </row>
-    <row r="29" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="7"/>
-      <c r="AI30" s="7"/>
-      <c r="AJ30" s="7"/>
-      <c r="AK30" s="7"/>
-      <c r="AL30" s="7"/>
-      <c r="AM30" s="7"/>
-      <c r="AN30" s="7"/>
-      <c r="AO30" s="7"/>
-      <c r="AP30" s="7"/>
-      <c r="AQ30" s="7"/>
-      <c r="AR30" s="7"/>
-      <c r="AS30" s="7"/>
-      <c r="AT30" s="7"/>
-      <c r="AU30" s="7"/>
-      <c r="AV30" s="8"/>
-    </row>
+    <row r="30" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="15"/>
-      <c r="AH31" s="15"/>
-      <c r="AI31" s="15"/>
-      <c r="AJ31" s="15"/>
-      <c r="AK31" s="15"/>
-      <c r="AL31" s="15"/>
-      <c r="AM31" s="15"/>
-      <c r="AN31" s="15"/>
-      <c r="AO31" s="15"/>
-      <c r="AP31" s="2"/>
-      <c r="AQ31" s="2"/>
-      <c r="AR31" s="2"/>
-      <c r="AS31" s="2"/>
-      <c r="AT31" s="2"/>
-      <c r="AU31" s="2"/>
-      <c r="AV31" s="10"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="7"/>
+      <c r="AP31" s="7"/>
+      <c r="AQ31" s="7"/>
+      <c r="AR31" s="7"/>
+      <c r="AS31" s="7"/>
+      <c r="AT31" s="7"/>
+      <c r="AU31" s="7"/>
+      <c r="AV31" s="8"/>
     </row>
     <row r="32" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
-      <c r="B32" s="15"/>
-      <c r="K32" s="19"/>
-      <c r="AH32" s="19"/>
-      <c r="AO32" s="15"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
+      <c r="AH32" s="20"/>
+      <c r="AI32" s="20"/>
+      <c r="AJ32" s="20"/>
+      <c r="AK32" s="20"/>
+      <c r="AL32" s="20"/>
+      <c r="AM32" s="20"/>
+      <c r="AN32" s="20"/>
+      <c r="AO32" s="20"/>
       <c r="AP32" s="2"/>
       <c r="AQ32" s="2"/>
       <c r="AR32" s="2"/>
@@ -1775,44 +1768,10 @@
     </row>
     <row r="33" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="17"/>
-      <c r="AI33" s="17"/>
-      <c r="AJ33" s="17"/>
-      <c r="AK33" s="17"/>
-      <c r="AL33" s="18"/>
-      <c r="AN33" s="16"/>
-      <c r="AO33" s="15"/>
+      <c r="B33" s="20"/>
+      <c r="K33" s="19"/>
+      <c r="AH33" s="19"/>
+      <c r="AO33" s="20"/>
       <c r="AP33" s="2"/>
       <c r="AQ33" s="2"/>
       <c r="AR33" s="2"/>
@@ -1823,12 +1782,44 @@
     </row>
     <row r="34" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
-      <c r="B34" s="15"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="4"/>
       <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
       <c r="R34" s="17"/>
       <c r="T34" s="17"/>
-      <c r="Z34" s="19"/>
-      <c r="AO34" s="15"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="18"/>
+      <c r="AN34" s="16"/>
+      <c r="AO34" s="20"/>
       <c r="AP34" s="2"/>
       <c r="AQ34" s="2"/>
       <c r="AR34" s="2"/>
@@ -1839,32 +1830,12 @@
     </row>
     <row r="35" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
-      <c r="B35" s="15"/>
-      <c r="D35" s="18"/>
-      <c r="H35" s="19"/>
-      <c r="O35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="D35" s="17"/>
       <c r="R35" s="17"/>
       <c r="T35" s="17"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="15"/>
-      <c r="Z35" s="15"/>
-      <c r="AA35" s="15"/>
-      <c r="AB35" s="15"/>
-      <c r="AC35" s="15"/>
-      <c r="AD35" s="15"/>
-      <c r="AE35" s="15"/>
-      <c r="AF35" s="15"/>
-      <c r="AG35" s="15"/>
-      <c r="AH35" s="15"/>
-      <c r="AI35" s="15"/>
-      <c r="AJ35" s="15"/>
-      <c r="AK35" s="15"/>
-      <c r="AL35" s="15"/>
-      <c r="AM35" s="15"/>
-      <c r="AN35" s="15"/>
-      <c r="AO35" s="15"/>
+      <c r="Z35" s="19"/>
+      <c r="AO35" s="20"/>
       <c r="AP35" s="2"/>
       <c r="AQ35" s="2"/>
       <c r="AR35" s="2"/>
@@ -1875,11 +1846,32 @@
     </row>
     <row r="36" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
-      <c r="B36" s="15"/>
+      <c r="B36" s="20"/>
+      <c r="D36" s="18"/>
+      <c r="H36" s="19"/>
+      <c r="O36" s="19"/>
       <c r="R36" s="17"/>
       <c r="T36" s="17"/>
-      <c r="AK36" s="19"/>
-      <c r="AO36" s="15"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="20"/>
+      <c r="AD36" s="20"/>
+      <c r="AE36" s="20"/>
+      <c r="AF36" s="20"/>
+      <c r="AG36" s="20"/>
+      <c r="AH36" s="20"/>
+      <c r="AI36" s="20"/>
+      <c r="AJ36" s="20"/>
+      <c r="AK36" s="20"/>
+      <c r="AL36" s="20"/>
+      <c r="AM36" s="20"/>
+      <c r="AN36" s="20"/>
+      <c r="AO36" s="20"/>
       <c r="AP36" s="2"/>
       <c r="AQ36" s="2"/>
       <c r="AR36" s="2"/>
@@ -1890,42 +1882,11 @@
     </row>
     <row r="37" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
-      <c r="B37" s="15"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="B37" s="20"/>
       <c r="R37" s="17"/>
       <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="17"/>
-      <c r="AA37" s="17"/>
-      <c r="AB37" s="17"/>
-      <c r="AC37" s="17"/>
-      <c r="AD37" s="17"/>
-      <c r="AE37" s="17"/>
-      <c r="AF37" s="17"/>
-      <c r="AG37" s="17"/>
-      <c r="AH37" s="17"/>
-      <c r="AI37" s="17"/>
-      <c r="AJ37" s="17"/>
-      <c r="AK37" s="17"/>
-      <c r="AL37" s="18"/>
-      <c r="AO37" s="15"/>
+      <c r="AK37" s="19"/>
+      <c r="AO37" s="20"/>
       <c r="AP37" s="2"/>
       <c r="AQ37" s="2"/>
       <c r="AR37" s="2"/>
@@ -1936,10 +1897,42 @@
     </row>
     <row r="38" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
-      <c r="B38" s="15"/>
-      <c r="P38" s="19"/>
-      <c r="AC38" s="19"/>
-      <c r="AO38" s="15"/>
+      <c r="B38" s="20"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="17"/>
+      <c r="AI38" s="17"/>
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="17"/>
+      <c r="AL38" s="18"/>
+      <c r="AO38" s="20"/>
       <c r="AP38" s="2"/>
       <c r="AQ38" s="2"/>
       <c r="AR38" s="2"/>
@@ -1950,46 +1943,10 @@
     </row>
     <row r="39" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="15"/>
-      <c r="AG39" s="15"/>
-      <c r="AH39" s="15"/>
-      <c r="AI39" s="15"/>
-      <c r="AJ39" s="14"/>
-      <c r="AK39" s="15"/>
-      <c r="AL39" s="15"/>
-      <c r="AM39" s="15"/>
-      <c r="AN39" s="15"/>
-      <c r="AO39" s="15"/>
+      <c r="B39" s="20"/>
+      <c r="P39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AO39" s="20"/>
       <c r="AP39" s="2"/>
       <c r="AQ39" s="2"/>
       <c r="AR39" s="2"/>
@@ -2000,10 +1957,46 @@
     </row>
     <row r="40" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
-      <c r="B40" s="15"/>
-      <c r="I40" s="19"/>
-      <c r="AG40" s="15"/>
-      <c r="AO40" s="15"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="20"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="20"/>
+      <c r="AI40" s="20"/>
+      <c r="AJ40" s="14"/>
+      <c r="AK40" s="20"/>
+      <c r="AL40" s="20"/>
+      <c r="AM40" s="20"/>
+      <c r="AN40" s="20"/>
+      <c r="AO40" s="20"/>
       <c r="AP40" s="2"/>
       <c r="AQ40" s="2"/>
       <c r="AR40" s="2"/>
@@ -2014,21 +2007,10 @@
     </row>
     <row r="41" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
-      <c r="B41" s="15"/>
-      <c r="D41" s="18"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="AE41" s="18"/>
-      <c r="AG41" s="15"/>
-      <c r="AO41" s="15"/>
+      <c r="B41" s="20"/>
+      <c r="I41" s="19"/>
+      <c r="AG41" s="20"/>
+      <c r="AO41" s="20"/>
       <c r="AP41" s="2"/>
       <c r="AQ41" s="2"/>
       <c r="AR41" s="2"/>
@@ -2039,13 +2021,21 @@
     </row>
     <row r="42" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
-      <c r="B42" s="15"/>
-      <c r="D42" s="17"/>
+      <c r="B42" s="20"/>
+      <c r="D42" s="18"/>
       <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
       <c r="W42" s="17"/>
-      <c r="AE42" s="17"/>
-      <c r="AG42" s="15"/>
-      <c r="AO42" s="15"/>
+      <c r="AE42" s="18"/>
+      <c r="AG42" s="20"/>
+      <c r="AO42" s="20"/>
       <c r="AP42" s="2"/>
       <c r="AQ42" s="2"/>
       <c r="AR42" s="2"/>
@@ -2056,13 +2046,13 @@
     </row>
     <row r="43" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
-      <c r="B43" s="3"/>
+      <c r="B43" s="20"/>
       <c r="D43" s="17"/>
       <c r="N43" s="17"/>
       <c r="W43" s="17"/>
       <c r="AE43" s="17"/>
-      <c r="AG43" s="15"/>
-      <c r="AO43" s="15"/>
+      <c r="AG43" s="20"/>
+      <c r="AO43" s="20"/>
       <c r="AP43" s="2"/>
       <c r="AQ43" s="2"/>
       <c r="AR43" s="2"/>
@@ -2073,14 +2063,13 @@
     </row>
     <row r="44" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
-      <c r="B44" s="15"/>
+      <c r="B44" s="3"/>
       <c r="D44" s="17"/>
       <c r="N44" s="17"/>
-      <c r="R44" s="19"/>
       <c r="W44" s="17"/>
       <c r="AE44" s="17"/>
-      <c r="AG44" s="15"/>
-      <c r="AO44" s="15"/>
+      <c r="AG44" s="20"/>
+      <c r="AO44" s="20"/>
       <c r="AP44" s="2"/>
       <c r="AQ44" s="2"/>
       <c r="AR44" s="2"/>
@@ -2091,28 +2080,14 @@
     </row>
     <row r="45" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
-      <c r="B45" s="15"/>
+      <c r="B45" s="20"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
       <c r="N45" s="17"/>
+      <c r="R45" s="19"/>
       <c r="W45" s="17"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="17"/>
-      <c r="Z45" s="17"/>
-      <c r="AA45" s="17"/>
-      <c r="AB45" s="17"/>
-      <c r="AC45" s="17"/>
-      <c r="AD45" s="17"/>
       <c r="AE45" s="17"/>
-      <c r="AO45" s="15"/>
+      <c r="AG45" s="20"/>
+      <c r="AO45" s="20"/>
       <c r="AP45" s="2"/>
       <c r="AQ45" s="2"/>
       <c r="AR45" s="2"/>
@@ -2123,9 +2098,28 @@
     </row>
     <row r="46" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
-      <c r="B46" s="15"/>
-      <c r="AI46" s="19"/>
-      <c r="AO46" s="15"/>
+      <c r="B46" s="20"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="17"/>
+      <c r="AD46" s="17"/>
+      <c r="AE46" s="17"/>
+      <c r="AO46" s="20"/>
       <c r="AP46" s="2"/>
       <c r="AQ46" s="2"/>
       <c r="AR46" s="2"/>
@@ -2136,46 +2130,9 @@
     </row>
     <row r="47" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="15"/>
-      <c r="Y47" s="15"/>
-      <c r="Z47" s="15"/>
-      <c r="AA47" s="15"/>
-      <c r="AB47" s="15"/>
-      <c r="AC47" s="15"/>
-      <c r="AD47" s="15"/>
-      <c r="AE47" s="15"/>
-      <c r="AF47" s="15"/>
-      <c r="AG47" s="15"/>
-      <c r="AH47" s="15"/>
-      <c r="AI47" s="15"/>
-      <c r="AJ47" s="15"/>
-      <c r="AK47" s="15"/>
-      <c r="AL47" s="15"/>
-      <c r="AM47" s="15"/>
-      <c r="AN47" s="15"/>
-      <c r="AO47" s="15"/>
+      <c r="B47" s="20"/>
+      <c r="AI47" s="19"/>
+      <c r="AO47" s="20"/>
       <c r="AP47" s="2"/>
       <c r="AQ47" s="2"/>
       <c r="AR47" s="2"/>
@@ -2186,46 +2143,46 @@
     </row>
     <row r="48" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="2"/>
-      <c r="AD48" s="2"/>
-      <c r="AE48" s="2"/>
-      <c r="AF48" s="2"/>
-      <c r="AG48" s="2"/>
-      <c r="AH48" s="2"/>
-      <c r="AI48" s="2"/>
-      <c r="AJ48" s="2"/>
-      <c r="AK48" s="2"/>
-      <c r="AL48" s="2"/>
-      <c r="AM48" s="2"/>
-      <c r="AN48" s="2"/>
-      <c r="AO48" s="2"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="20"/>
+      <c r="AC48" s="20"/>
+      <c r="AD48" s="20"/>
+      <c r="AE48" s="20"/>
+      <c r="AF48" s="20"/>
+      <c r="AG48" s="20"/>
+      <c r="AH48" s="20"/>
+      <c r="AI48" s="20"/>
+      <c r="AJ48" s="20"/>
+      <c r="AK48" s="20"/>
+      <c r="AL48" s="20"/>
+      <c r="AM48" s="20"/>
+      <c r="AN48" s="20"/>
+      <c r="AO48" s="20"/>
       <c r="AP48" s="2"/>
       <c r="AQ48" s="2"/>
       <c r="AR48" s="2"/>
@@ -2584,55 +2541,105 @@
       <c r="AU55" s="2"/>
       <c r="AV55" s="10"/>
     </row>
-    <row r="56" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="12"/>
-      <c r="V56" s="12"/>
-      <c r="W56" s="12"/>
-      <c r="X56" s="12"/>
-      <c r="Y56" s="12"/>
-      <c r="Z56" s="12"/>
-      <c r="AA56" s="12"/>
-      <c r="AB56" s="12"/>
-      <c r="AC56" s="12"/>
-      <c r="AD56" s="12"/>
-      <c r="AE56" s="12"/>
-      <c r="AF56" s="12"/>
-      <c r="AG56" s="12"/>
-      <c r="AH56" s="12"/>
-      <c r="AI56" s="12"/>
-      <c r="AJ56" s="12"/>
-      <c r="AK56" s="12"/>
-      <c r="AL56" s="12"/>
-      <c r="AM56" s="12"/>
-      <c r="AN56" s="12"/>
-      <c r="AO56" s="12"/>
-      <c r="AP56" s="12"/>
-      <c r="AQ56" s="12"/>
-      <c r="AR56" s="12"/>
-      <c r="AS56" s="12"/>
-      <c r="AT56" s="12"/>
-      <c r="AU56" s="12"/>
-      <c r="AV56" s="13"/>
+    <row r="56" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="2"/>
+      <c r="AH56" s="2"/>
+      <c r="AI56" s="2"/>
+      <c r="AJ56" s="2"/>
+      <c r="AK56" s="2"/>
+      <c r="AL56" s="2"/>
+      <c r="AM56" s="2"/>
+      <c r="AN56" s="2"/>
+      <c r="AO56" s="2"/>
+      <c r="AP56" s="2"/>
+      <c r="AQ56" s="2"/>
+      <c r="AR56" s="2"/>
+      <c r="AS56" s="2"/>
+      <c r="AT56" s="2"/>
+      <c r="AU56" s="2"/>
+      <c r="AV56" s="10"/>
+    </row>
+    <row r="57" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="11"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="12"/>
+      <c r="AC57" s="12"/>
+      <c r="AD57" s="12"/>
+      <c r="AE57" s="12"/>
+      <c r="AF57" s="12"/>
+      <c r="AG57" s="12"/>
+      <c r="AH57" s="12"/>
+      <c r="AI57" s="12"/>
+      <c r="AJ57" s="12"/>
+      <c r="AK57" s="12"/>
+      <c r="AL57" s="12"/>
+      <c r="AM57" s="12"/>
+      <c r="AN57" s="12"/>
+      <c r="AO57" s="12"/>
+      <c r="AP57" s="12"/>
+      <c r="AQ57" s="12"/>
+      <c r="AR57" s="12"/>
+      <c r="AS57" s="12"/>
+      <c r="AT57" s="12"/>
+      <c r="AU57" s="12"/>
+      <c r="AV57" s="13"/>
     </row>
     <row r="58" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/GGJ2018/data/Level_Design.xlsx
+++ b/GGJ2018/data/Level_Design.xlsx
@@ -29,7 +29,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -63,12 +63,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -195,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -216,7 +210,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -560,17 +553,17 @@
     </row>
     <row r="2" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -587,13 +580,13 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
@@ -610,9 +603,17 @@
     </row>
     <row r="3" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="15"/>
-      <c r="G3" s="19"/>
-      <c r="L3" s="15"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -629,8 +630,13 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
-      <c r="AC3" s="15"/>
-      <c r="AI3" s="15"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
@@ -647,28 +653,40 @@
     </row>
     <row r="4" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
       <c r="AB4" s="2"/>
-      <c r="AC4" s="15"/>
-      <c r="AI4" s="15"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
@@ -685,26 +703,22 @@
     </row>
     <row r="5" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
-      <c r="B5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="19"/>
+      <c r="K5" s="18"/>
+      <c r="V5" s="19"/>
+      <c r="AA5" s="19"/>
       <c r="AB5" s="2"/>
-      <c r="AC5" s="15"/>
-      <c r="AI5" s="15"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
@@ -721,26 +735,23 @@
     </row>
     <row r="6" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
-      <c r="B6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="19"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="19"/>
+      <c r="Y6" s="17"/>
+      <c r="AA6" s="19"/>
       <c r="AB6" s="2"/>
-      <c r="AC6" s="15"/>
-      <c r="AI6" s="15"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
@@ -757,30 +768,23 @@
     </row>
     <row r="7" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="O7" s="16"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="4"/>
+      <c r="V7" s="14"/>
+      <c r="Y7" s="16"/>
+      <c r="AA7" s="19"/>
       <c r="AB7" s="2"/>
-      <c r="AC7" s="15"/>
-      <c r="AI7" s="15"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
@@ -801,29 +805,20 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
+      <c r="F8" s="19"/>
+      <c r="K8" s="18"/>
+      <c r="V8" s="19"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="16"/>
+      <c r="AA8" s="19"/>
       <c r="AB8" s="2"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="15"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
@@ -844,27 +839,33 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="16"/>
+      <c r="AA9" s="19"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="15"/>
-      <c r="AG9" s="15"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
@@ -887,28 +888,17 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
+      <c r="F10" s="19"/>
+      <c r="M10" s="18"/>
+      <c r="S10" s="19"/>
+      <c r="Y10" s="16"/>
+      <c r="AA10" s="19"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="15"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
@@ -931,31 +921,26 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
+      <c r="F11" s="19"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="S11" s="19"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="AA11" s="19"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="15"/>
-      <c r="AG11" s="15"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
@@ -978,31 +963,25 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="J12" s="17"/>
+      <c r="M12" s="19"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="18"/>
+      <c r="AA12" s="19"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="15"/>
-      <c r="AG12" s="15"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
@@ -1025,23 +1004,16 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="15"/>
-      <c r="R13" s="14"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
+      <c r="F13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
@@ -1063,22 +1035,35 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="AH14" s="15"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
@@ -1113,15 +1098,22 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AH15" s="15"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
@@ -1156,13 +1148,22 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="15"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="15"/>
-      <c r="AA16" s="17"/>
-      <c r="AC16" s="19"/>
-      <c r="AF16" s="17"/>
-      <c r="AH16" s="15"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
@@ -1197,12 +1198,22 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="AA17" s="17"/>
-      <c r="AC17" s="15"/>
-      <c r="AF17" s="17"/>
-      <c r="AH17" s="15"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
@@ -1237,11 +1248,22 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="15"/>
-      <c r="AA18" s="17"/>
-      <c r="AC18" s="15"/>
-      <c r="AF18" s="17"/>
-      <c r="AH18" s="15"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
@@ -1276,11 +1298,22 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="15"/>
-      <c r="AA19" s="17"/>
-      <c r="AC19" s="15"/>
-      <c r="AF19" s="17"/>
-      <c r="AH19" s="15"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
@@ -1315,15 +1348,22 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="15"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="19"/>
-      <c r="AF20" s="18"/>
-      <c r="AH20" s="15"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
@@ -1358,9 +1398,22 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AH21" s="15"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
@@ -1395,11 +1448,22 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="15"/>
-      <c r="V22" s="19"/>
-      <c r="AC22" s="15"/>
-      <c r="AF22" s="16"/>
-      <c r="AH22" s="15"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
@@ -1434,22 +1498,22 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="15"/>
-      <c r="AH23" s="15"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
@@ -1718,46 +1782,46 @@
     </row>
     <row r="32" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
-      <c r="AD32" s="20"/>
-      <c r="AE32" s="20"/>
-      <c r="AF32" s="20"/>
-      <c r="AG32" s="20"/>
-      <c r="AH32" s="20"/>
-      <c r="AI32" s="20"/>
-      <c r="AJ32" s="20"/>
-      <c r="AK32" s="20"/>
-      <c r="AL32" s="20"/>
-      <c r="AM32" s="20"/>
-      <c r="AN32" s="20"/>
-      <c r="AO32" s="20"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="19"/>
+      <c r="AK32" s="19"/>
+      <c r="AL32" s="19"/>
+      <c r="AM32" s="19"/>
+      <c r="AN32" s="19"/>
+      <c r="AO32" s="19"/>
       <c r="AP32" s="2"/>
       <c r="AQ32" s="2"/>
       <c r="AR32" s="2"/>
@@ -1768,10 +1832,10 @@
     </row>
     <row r="33" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
-      <c r="B33" s="20"/>
-      <c r="K33" s="19"/>
-      <c r="AH33" s="19"/>
-      <c r="AO33" s="20"/>
+      <c r="B33" s="19"/>
+      <c r="K33" s="18"/>
+      <c r="AH33" s="18"/>
+      <c r="AO33" s="19"/>
       <c r="AP33" s="2"/>
       <c r="AQ33" s="2"/>
       <c r="AR33" s="2"/>
@@ -1782,44 +1846,44 @@
     </row>
     <row r="34" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
-      <c r="B34" s="20"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="17"/>
-      <c r="AD34" s="17"/>
-      <c r="AE34" s="17"/>
-      <c r="AF34" s="17"/>
-      <c r="AG34" s="17"/>
-      <c r="AH34" s="17"/>
-      <c r="AI34" s="17"/>
-      <c r="AJ34" s="17"/>
-      <c r="AK34" s="17"/>
-      <c r="AL34" s="18"/>
-      <c r="AN34" s="16"/>
-      <c r="AO34" s="20"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
+      <c r="AG34" s="16"/>
+      <c r="AH34" s="16"/>
+      <c r="AI34" s="16"/>
+      <c r="AJ34" s="16"/>
+      <c r="AK34" s="16"/>
+      <c r="AL34" s="17"/>
+      <c r="AN34" s="15"/>
+      <c r="AO34" s="19"/>
       <c r="AP34" s="2"/>
       <c r="AQ34" s="2"/>
       <c r="AR34" s="2"/>
@@ -1830,12 +1894,12 @@
     </row>
     <row r="35" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
-      <c r="B35" s="20"/>
-      <c r="D35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="Z35" s="19"/>
-      <c r="AO35" s="20"/>
+      <c r="B35" s="19"/>
+      <c r="D35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="Z35" s="18"/>
+      <c r="AO35" s="19"/>
       <c r="AP35" s="2"/>
       <c r="AQ35" s="2"/>
       <c r="AR35" s="2"/>
@@ -1846,32 +1910,32 @@
     </row>
     <row r="36" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
-      <c r="B36" s="20"/>
-      <c r="D36" s="18"/>
-      <c r="H36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="R36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="20"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="20"/>
-      <c r="AD36" s="20"/>
-      <c r="AE36" s="20"/>
-      <c r="AF36" s="20"/>
-      <c r="AG36" s="20"/>
-      <c r="AH36" s="20"/>
-      <c r="AI36" s="20"/>
-      <c r="AJ36" s="20"/>
-      <c r="AK36" s="20"/>
-      <c r="AL36" s="20"/>
-      <c r="AM36" s="20"/>
-      <c r="AN36" s="20"/>
-      <c r="AO36" s="20"/>
+      <c r="B36" s="19"/>
+      <c r="D36" s="17"/>
+      <c r="H36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="R36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="19"/>
+      <c r="AF36" s="19"/>
+      <c r="AG36" s="19"/>
+      <c r="AH36" s="19"/>
+      <c r="AI36" s="19"/>
+      <c r="AJ36" s="19"/>
+      <c r="AK36" s="19"/>
+      <c r="AL36" s="19"/>
+      <c r="AM36" s="19"/>
+      <c r="AN36" s="19"/>
+      <c r="AO36" s="19"/>
       <c r="AP36" s="2"/>
       <c r="AQ36" s="2"/>
       <c r="AR36" s="2"/>
@@ -1882,11 +1946,11 @@
     </row>
     <row r="37" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
-      <c r="B37" s="20"/>
-      <c r="R37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="AK37" s="19"/>
-      <c r="AO37" s="20"/>
+      <c r="B37" s="19"/>
+      <c r="R37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="AK37" s="18"/>
+      <c r="AO37" s="19"/>
       <c r="AP37" s="2"/>
       <c r="AQ37" s="2"/>
       <c r="AR37" s="2"/>
@@ -1897,42 +1961,42 @@
     </row>
     <row r="38" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
-      <c r="B38" s="20"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17"/>
-      <c r="AC38" s="17"/>
-      <c r="AD38" s="17"/>
-      <c r="AE38" s="17"/>
-      <c r="AF38" s="17"/>
-      <c r="AG38" s="17"/>
-      <c r="AH38" s="17"/>
-      <c r="AI38" s="17"/>
-      <c r="AJ38" s="17"/>
-      <c r="AK38" s="17"/>
-      <c r="AL38" s="18"/>
-      <c r="AO38" s="20"/>
+      <c r="B38" s="19"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="16"/>
+      <c r="AF38" s="16"/>
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="16"/>
+      <c r="AI38" s="16"/>
+      <c r="AJ38" s="16"/>
+      <c r="AK38" s="16"/>
+      <c r="AL38" s="17"/>
+      <c r="AO38" s="19"/>
       <c r="AP38" s="2"/>
       <c r="AQ38" s="2"/>
       <c r="AR38" s="2"/>
@@ -1943,10 +2007,10 @@
     </row>
     <row r="39" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="20"/>
-      <c r="P39" s="19"/>
-      <c r="AC39" s="19"/>
-      <c r="AO39" s="20"/>
+      <c r="B39" s="19"/>
+      <c r="P39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AO39" s="19"/>
       <c r="AP39" s="2"/>
       <c r="AQ39" s="2"/>
       <c r="AR39" s="2"/>
@@ -1957,46 +2021,46 @@
     </row>
     <row r="40" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="20"/>
-      <c r="AA40" s="20"/>
-      <c r="AB40" s="20"/>
-      <c r="AC40" s="20"/>
-      <c r="AD40" s="20"/>
-      <c r="AE40" s="20"/>
-      <c r="AF40" s="20"/>
-      <c r="AG40" s="20"/>
-      <c r="AH40" s="20"/>
-      <c r="AI40" s="20"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="19"/>
+      <c r="AH40" s="19"/>
+      <c r="AI40" s="19"/>
       <c r="AJ40" s="14"/>
-      <c r="AK40" s="20"/>
-      <c r="AL40" s="20"/>
-      <c r="AM40" s="20"/>
-      <c r="AN40" s="20"/>
-      <c r="AO40" s="20"/>
+      <c r="AK40" s="19"/>
+      <c r="AL40" s="19"/>
+      <c r="AM40" s="19"/>
+      <c r="AN40" s="19"/>
+      <c r="AO40" s="19"/>
       <c r="AP40" s="2"/>
       <c r="AQ40" s="2"/>
       <c r="AR40" s="2"/>
@@ -2007,10 +2071,10 @@
     </row>
     <row r="41" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
-      <c r="B41" s="20"/>
-      <c r="I41" s="19"/>
-      <c r="AG41" s="20"/>
-      <c r="AO41" s="20"/>
+      <c r="B41" s="19"/>
+      <c r="I41" s="18"/>
+      <c r="AG41" s="19"/>
+      <c r="AO41" s="19"/>
       <c r="AP41" s="2"/>
       <c r="AQ41" s="2"/>
       <c r="AR41" s="2"/>
@@ -2021,21 +2085,21 @@
     </row>
     <row r="42" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
-      <c r="B42" s="20"/>
-      <c r="D42" s="18"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
-      <c r="W42" s="17"/>
-      <c r="AE42" s="18"/>
-      <c r="AG42" s="20"/>
-      <c r="AO42" s="20"/>
+      <c r="B42" s="19"/>
+      <c r="D42" s="17"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="AE42" s="17"/>
+      <c r="AG42" s="19"/>
+      <c r="AO42" s="19"/>
       <c r="AP42" s="2"/>
       <c r="AQ42" s="2"/>
       <c r="AR42" s="2"/>
@@ -2046,13 +2110,13 @@
     </row>
     <row r="43" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
-      <c r="B43" s="20"/>
-      <c r="D43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="W43" s="17"/>
-      <c r="AE43" s="17"/>
-      <c r="AG43" s="20"/>
-      <c r="AO43" s="20"/>
+      <c r="B43" s="19"/>
+      <c r="D43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="AE43" s="16"/>
+      <c r="AG43" s="19"/>
+      <c r="AO43" s="19"/>
       <c r="AP43" s="2"/>
       <c r="AQ43" s="2"/>
       <c r="AR43" s="2"/>
@@ -2064,12 +2128,12 @@
     <row r="44" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="3"/>
-      <c r="D44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="W44" s="17"/>
-      <c r="AE44" s="17"/>
-      <c r="AG44" s="20"/>
-      <c r="AO44" s="20"/>
+      <c r="D44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="AE44" s="16"/>
+      <c r="AG44" s="19"/>
+      <c r="AO44" s="19"/>
       <c r="AP44" s="2"/>
       <c r="AQ44" s="2"/>
       <c r="AR44" s="2"/>
@@ -2080,14 +2144,14 @@
     </row>
     <row r="45" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
-      <c r="B45" s="20"/>
-      <c r="D45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="R45" s="19"/>
-      <c r="W45" s="17"/>
-      <c r="AE45" s="17"/>
-      <c r="AG45" s="20"/>
-      <c r="AO45" s="20"/>
+      <c r="B45" s="19"/>
+      <c r="D45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="R45" s="18"/>
+      <c r="W45" s="16"/>
+      <c r="AE45" s="16"/>
+      <c r="AG45" s="19"/>
+      <c r="AO45" s="19"/>
       <c r="AP45" s="2"/>
       <c r="AQ45" s="2"/>
       <c r="AR45" s="2"/>
@@ -2098,28 +2162,28 @@
     </row>
     <row r="46" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
-      <c r="B46" s="20"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="W46" s="17"/>
-      <c r="X46" s="17"/>
-      <c r="Y46" s="17"/>
-      <c r="Z46" s="17"/>
-      <c r="AA46" s="17"/>
-      <c r="AB46" s="17"/>
-      <c r="AC46" s="17"/>
-      <c r="AD46" s="17"/>
-      <c r="AE46" s="17"/>
-      <c r="AO46" s="20"/>
+      <c r="B46" s="19"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="16"/>
+      <c r="AD46" s="16"/>
+      <c r="AE46" s="16"/>
+      <c r="AO46" s="19"/>
       <c r="AP46" s="2"/>
       <c r="AQ46" s="2"/>
       <c r="AR46" s="2"/>
@@ -2130,9 +2194,9 @@
     </row>
     <row r="47" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
-      <c r="B47" s="20"/>
-      <c r="AI47" s="19"/>
-      <c r="AO47" s="20"/>
+      <c r="B47" s="19"/>
+      <c r="AI47" s="18"/>
+      <c r="AO47" s="19"/>
       <c r="AP47" s="2"/>
       <c r="AQ47" s="2"/>
       <c r="AR47" s="2"/>
@@ -2143,46 +2207,46 @@
     </row>
     <row r="48" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="20"/>
-      <c r="X48" s="20"/>
-      <c r="Y48" s="20"/>
-      <c r="Z48" s="20"/>
-      <c r="AA48" s="20"/>
-      <c r="AB48" s="20"/>
-      <c r="AC48" s="20"/>
-      <c r="AD48" s="20"/>
-      <c r="AE48" s="20"/>
-      <c r="AF48" s="20"/>
-      <c r="AG48" s="20"/>
-      <c r="AH48" s="20"/>
-      <c r="AI48" s="20"/>
-      <c r="AJ48" s="20"/>
-      <c r="AK48" s="20"/>
-      <c r="AL48" s="20"/>
-      <c r="AM48" s="20"/>
-      <c r="AN48" s="20"/>
-      <c r="AO48" s="20"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="19"/>
+      <c r="AD48" s="19"/>
+      <c r="AE48" s="19"/>
+      <c r="AF48" s="19"/>
+      <c r="AG48" s="19"/>
+      <c r="AH48" s="19"/>
+      <c r="AI48" s="19"/>
+      <c r="AJ48" s="19"/>
+      <c r="AK48" s="19"/>
+      <c r="AL48" s="19"/>
+      <c r="AM48" s="19"/>
+      <c r="AN48" s="19"/>
+      <c r="AO48" s="19"/>
       <c r="AP48" s="2"/>
       <c r="AQ48" s="2"/>
       <c r="AR48" s="2"/>
